--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,12 @@
     <sheet name="message表" sheetId="30" r:id="rId10"/>
     <sheet name="系統設置表" sheetId="29" r:id="rId11"/>
     <sheet name="日程事件子表(里程碑)" sheetId="31" r:id="rId12"/>
+    <sheet name="日程事件子表(周期)" sheetId="32" r:id="rId13"/>
+    <sheet name="日程事件子表(任务)" sheetId="33" r:id="rId14"/>
+    <sheet name="日程事件子表(事件)" sheetId="34" r:id="rId15"/>
+    <sheet name="日程事件子表(备忘录)" sheetId="35" r:id="rId16"/>
+    <sheet name="日程事件子表(日常生活)" sheetId="36" r:id="rId17"/>
+    <sheet name="日程事件子表(特殊日期)" sheetId="37" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="215">
   <si>
     <t>表名</t>
   </si>
@@ -130,9 +136,6 @@
     <t>USER_TYPE</t>
   </si>
   <si>
-    <t>群成员自增主键</t>
-  </si>
-  <si>
     <t>日程事件ID</t>
   </si>
   <si>
@@ -262,14 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系人备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户授权表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,43 +374,175 @@
     <t>message表</t>
   </si>
   <si>
+    <t>GTD_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPK_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_OHTER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权关系人中间表</t>
+  </si>
+  <si>
+    <t>授权表主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表关系人主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPK_MEMBER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系人群组中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B_X</t>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_AUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0无，1男，2女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BIGINT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GTD_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPK_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_OHTER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_CONTACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
+    <t>message自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message文言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_H</t>
+  </si>
+  <si>
+    <t>GTD_C</t>
+  </si>
+  <si>
+    <t>GTD_D</t>
+  </si>
+  <si>
+    <t>GTD_E</t>
+  </si>
+  <si>
+    <t>GTD_F</t>
+  </si>
+  <si>
+    <t>GTD_G</t>
+  </si>
+  <si>
+    <t>系统设置自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -423,155 +550,190 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>授权标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权关系人中间表</t>
-  </si>
-  <si>
-    <t>授权表主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表关系人主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPK_MEMBER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系人群组中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B_X</t>
+    <t>MESSAGE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MESSAGE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MESSAGE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BIGINT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_AUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0无，1男，2女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1是个人，2是群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message文言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_H</t>
-  </si>
-  <si>
-    <t>GTD_C</t>
-  </si>
-  <si>
-    <t>GTD_D</t>
-  </si>
-  <si>
-    <t>GTD_E</t>
-  </si>
-  <si>
-    <t>GTD_F</t>
-  </si>
-  <si>
-    <t>GTD_G</t>
-  </si>
-  <si>
-    <t>系统设置自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
+    <t>日程事件子表(里程碑)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_1</t>
+  </si>
+  <si>
+    <t>对应日程子表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL_TABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_2</t>
+  </si>
+  <si>
+    <t>GTD_C_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_3</t>
+  </si>
+  <si>
+    <t>GTD_C_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(任务)</t>
+  </si>
+  <si>
+    <t>日程事件子表(周期)</t>
+  </si>
+  <si>
+    <t>日程事件子表(里程碑)</t>
+  </si>
+  <si>
+    <t>GTD_C_4</t>
+  </si>
+  <si>
+    <t>GTD_C_5</t>
+  </si>
+  <si>
+    <t>GTD_C_6</t>
+  </si>
+  <si>
+    <t>GTD_C_7</t>
+  </si>
+  <si>
+    <t>日程事件子表(任务)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(事件)</t>
+  </si>
+  <si>
+    <t>日程事件子表(备忘录)</t>
+  </si>
+  <si>
+    <t>日程事件子表(特殊日期)</t>
+  </si>
+  <si>
+    <t>日程事件子表(事件)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(备忘录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日常生活)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日常生活)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(特殊日期)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL_RESERVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是个人，2是群，3未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户消息队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_QUEUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -579,54 +741,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MESSAGE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MESSAGE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MESSAGE_TYPE</t>
+    <t>里程碑日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑时刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datatime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILESTONE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILESTONE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILESTONE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期重复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期活性标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYCLE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYCLE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYCLE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYCLE_FALG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务子表ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(里程碑)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_1</t>
-  </si>
-  <si>
-    <t>对应日程子表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_TABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,7 +958,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,6 +999,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1101,12 +1299,12 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.625" customWidth="1"/>
@@ -1126,23 +1324,23 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1150,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1158,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1166,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1174,56 +1372,80 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6"/>
@@ -1304,8 +1526,12 @@
     <hyperlink ref="A8" location="标签表!A1" display="标签表"/>
     <hyperlink ref="A9" location="系統設置表!A1" display="系统设置表"/>
     <hyperlink ref="A10" location="message表!A1" display="message表"/>
+    <hyperlink ref="A11" location="'日程事件子表(里程碑)'!A1" display="日程事件子表(里程碑)"/>
+    <hyperlink ref="A12" location="'日程事件子表(周期)'!A1" display="日程事件子表(周期)"/>
+    <hyperlink ref="A13" location="Sheet3!A1" display="日程事件子表(任务)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1331,15 +1557,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="15"/>
+      <c r="E2" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1360,47 +1586,47 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1466,7 +1692,7 @@
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="A1:XFD1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1483,15 +1709,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="15"/>
+      <c r="E2" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1512,62 +1738,62 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,7 +1852,7 @@
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D5" sqref="D5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1643,15 +1869,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" s="15"/>
+      <c r="E2" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1667,6 +1893,474 @@
         <v>11</v>
       </c>
       <c r="F3" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1680,9 +2374,417 @@
     <row r="5" spans="1:6">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5"/>
@@ -1765,30 +2867,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="7">
         <v>43415</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1804,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1827,10 +2929,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="15"/>
+      <c r="E2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1861,7 +2963,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1911,14 +3013,14 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -1926,17 +3028,17 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1944,7 +3046,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>26</v>
@@ -1965,7 +3067,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>16</v>
@@ -1988,25 +3090,33 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B13" s="9"/>
       <c r="D13" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5"/>
@@ -2041,208 +3151,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -2262,15 +3170,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="15"/>
+      <c r="E2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2282,6 +3190,208 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
@@ -2291,32 +3401,32 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>126</v>
+        <v>98</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2383,7 +3493,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2405,10 +3515,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2429,53 +3539,63 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10"/>
@@ -2550,7 +3670,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="F4" activeCellId="1" sqref="F5 F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2572,10 +3692,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="15"/>
+      <c r="E2" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2596,72 +3716,74 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>13</v>
@@ -2669,14 +3791,14 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>17</v>
@@ -2684,17 +3806,17 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2739,8 +3861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2762,10 +3884,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="15"/>
+      <c r="E2" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2786,44 +3908,44 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
@@ -2831,25 +3953,33 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5"/>
@@ -2887,7 +4017,7 @@
   <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2909,10 +4039,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="15"/>
+      <c r="E2" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2933,44 +4063,44 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>17</v>

--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -9,27 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
     <sheet name="更新日志" sheetId="23" r:id="rId2"/>
-    <sheet name="用户表" sheetId="4" r:id="rId3"/>
-    <sheet name="用户授权表" sheetId="24" r:id="rId4"/>
-    <sheet name="关系人群组中间表" sheetId="8" r:id="rId5"/>
-    <sheet name="日程事件表" sheetId="9" r:id="rId6"/>
-    <sheet name="日程参与人表" sheetId="10" r:id="rId7"/>
-    <sheet name="标签表" sheetId="14" r:id="rId8"/>
-    <sheet name="提醒时间表" sheetId="11" r:id="rId9"/>
-    <sheet name="message表" sheetId="30" r:id="rId10"/>
-    <sheet name="系統設置表" sheetId="29" r:id="rId11"/>
-    <sheet name="日程事件子表(里程碑)" sheetId="31" r:id="rId12"/>
-    <sheet name="日程事件子表(周期)" sheetId="32" r:id="rId13"/>
-    <sheet name="日程事件子表(任务)" sheetId="33" r:id="rId14"/>
-    <sheet name="日程事件子表(事件)" sheetId="34" r:id="rId15"/>
-    <sheet name="日程事件子表(备忘录)" sheetId="35" r:id="rId16"/>
-    <sheet name="日程事件子表(日常生活)" sheetId="36" r:id="rId17"/>
-    <sheet name="日程事件子表(特殊日期)" sheetId="37" r:id="rId18"/>
+    <sheet name="字典表" sheetId="38" r:id="rId3"/>
+    <sheet name="字典数据表" sheetId="39" r:id="rId4"/>
+    <sheet name="用户表" sheetId="4" r:id="rId5"/>
+    <sheet name="用户授权表" sheetId="24" r:id="rId6"/>
+    <sheet name="授权系人群组中间表" sheetId="8" r:id="rId7"/>
+    <sheet name="日程事件表" sheetId="9" r:id="rId8"/>
+    <sheet name="日程参与人表" sheetId="10" r:id="rId9"/>
+    <sheet name="标签表" sheetId="14" r:id="rId10"/>
+    <sheet name="提醒时间表" sheetId="11" r:id="rId11"/>
+    <sheet name="系統設置表" sheetId="29" r:id="rId12"/>
+    <sheet name="日程事件子表(里程碑)" sheetId="31" r:id="rId13"/>
+    <sheet name="日程事件子表(周期)" sheetId="32" r:id="rId14"/>
+    <sheet name="日程事件子表(任务)" sheetId="33" r:id="rId15"/>
+    <sheet name="日程事件子表(事件)" sheetId="34" r:id="rId16"/>
+    <sheet name="日程事件子表(备忘录)" sheetId="35" r:id="rId17"/>
+    <sheet name="日程事件子表(日常生活)" sheetId="36" r:id="rId18"/>
+    <sheet name="日程事件子表(特殊日期)" sheetId="37" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="236">
   <si>
     <t>表名</t>
   </si>
@@ -218,46 +219,300 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>更新版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴宗煜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程主题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_OTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>varchar(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更新版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴宗煜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程主题备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_OTHER_NAME</t>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用戶token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程提醒时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义全部客户端表字典结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>USER_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REAL_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_CARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統設置表</t>
+  </si>
+  <si>
+    <t>GTD_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPK_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权关系人中间表</t>
+  </si>
+  <si>
+    <t>授权表主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表关系人主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPK_MEMBER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B_X</t>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_AUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0无，1男，2女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C</t>
+  </si>
+  <si>
+    <t>GTD_D</t>
+  </si>
+  <si>
+    <t>GTD_E</t>
+  </si>
+  <si>
+    <t>GTD_F</t>
+  </si>
+  <si>
+    <t>GTD_G</t>
+  </si>
+  <si>
+    <t>系统设置自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(里程碑)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_1</t>
+  </si>
+  <si>
+    <t>对应日程子表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL_TABLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -265,90 +520,346 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用戶token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程提醒时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义全部客户端表字典结构</t>
+    <t>GTD_C_2</t>
+  </si>
+  <si>
+    <t>GTD_C_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_3</t>
+  </si>
+  <si>
+    <t>GTD_C_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(任务)</t>
+  </si>
+  <si>
+    <t>日程事件子表(周期)</t>
+  </si>
+  <si>
+    <t>日程事件子表(里程碑)</t>
+  </si>
+  <si>
+    <t>GTD_C_4</t>
+  </si>
+  <si>
+    <t>GTD_C_5</t>
+  </si>
+  <si>
+    <t>GTD_C_6</t>
+  </si>
+  <si>
+    <t>GTD_C_7</t>
+  </si>
+  <si>
+    <t>日程事件子表(任务)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(事件)</t>
+  </si>
+  <si>
+    <t>日程事件子表(备忘录)</t>
+  </si>
+  <si>
+    <t>日程事件子表(特殊日期)</t>
+  </si>
+  <si>
+    <t>日程事件子表(事件)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(备忘录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日常生活)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日常生活)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(特殊日期)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL_RESERVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户消息队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_QUEUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑时刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datatime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILESTONE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILESTONE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILESTONE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期重复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期活性标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYCLE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYCLE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYCLE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYCLE_FALG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_X</t>
+  </si>
+  <si>
+    <t>GTD_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权系人群组中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表自增主键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BIGINT</t>
-  </si>
-  <si>
-    <t>USER_TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REAL_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_CARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否固定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0默认为不固定，1固定；固定就不能再去修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISFIXED     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_ANOTHER_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -356,29 +867,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GTD_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統設置表</t>
-  </si>
-  <si>
-    <t>message表</t>
-  </si>
-  <si>
-    <t>GTD_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPK_ID</t>
+    <t>被授权联系人名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -386,7 +875,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RELATER_OHTER_NAME</t>
+    <t>被授权联系人联系方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -394,11 +883,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RELATER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
+    <t>varchar(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -406,11 +891,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RELATER_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
+    <t>RELATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -418,410 +903,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RELATER_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权关系人中间表</t>
-  </si>
-  <si>
-    <t>授权表主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表关系人主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPK_MEMBER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系人群组中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B_X</t>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_AUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0无，1男，2女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message文言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_H</t>
-  </si>
-  <si>
-    <t>GTD_C</t>
-  </si>
-  <si>
-    <t>GTD_D</t>
-  </si>
-  <si>
-    <t>GTD_E</t>
-  </si>
-  <si>
-    <t>GTD_F</t>
-  </si>
-  <si>
-    <t>GTD_G</t>
-  </si>
-  <si>
-    <t>系统设置自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MESSAGE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MESSAGE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MESSAGE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(里程碑)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_1</t>
-  </si>
-  <si>
-    <t>对应日程子表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_TABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_2</t>
-  </si>
-  <si>
-    <t>GTD_C_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_3</t>
-  </si>
-  <si>
-    <t>GTD_C_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(任务)</t>
-  </si>
-  <si>
-    <t>日程事件子表(周期)</t>
-  </si>
-  <si>
-    <t>日程事件子表(里程碑)</t>
-  </si>
-  <si>
-    <t>GTD_C_4</t>
-  </si>
-  <si>
-    <t>GTD_C_5</t>
-  </si>
-  <si>
-    <t>GTD_C_6</t>
-  </si>
-  <si>
-    <t>GTD_C_7</t>
-  </si>
-  <si>
-    <t>日程事件子表(任务)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(事件)</t>
-  </si>
-  <si>
-    <t>日程事件子表(备忘录)</t>
-  </si>
-  <si>
-    <t>日程事件子表(特殊日期)</t>
-  </si>
-  <si>
-    <t>日程事件子表(事件)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(备忘录)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日常生活)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日常生活)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(特殊日期)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备用字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_RESERVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1是个人，2是群，3未注册用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被授权联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户消息队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_QUEUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里程碑日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里程碑时刻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里程碑子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datatime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MILESTONE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MILESTONE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MILESTONE_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期重复时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期活性标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYCLE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYCLE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYCLE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYCLE_FALG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
+    <t>字典表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,7 +1044,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -999,6 +1085,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1296,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1321,135 +1410,139 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>2</v>
+        <v>235</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6"/>
@@ -1519,16 +1612,22 @@
       <c r="A35" s="6"/>
       <c r="B35" s="2"/>
     </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="标签表!A1" display="标签表"/>
-    <hyperlink ref="A8" location="标签表!A1" display="标签表"/>
-    <hyperlink ref="A9" location="系統設置表!A1" display="系统设置表"/>
-    <hyperlink ref="A10" location="message表!A1" display="message表"/>
-    <hyperlink ref="A11" location="'日程事件子表(里程碑)'!A1" display="日程事件子表(里程碑)"/>
-    <hyperlink ref="A12" location="'日程事件子表(周期)'!A1" display="日程事件子表(周期)"/>
-    <hyperlink ref="A13" location="Sheet3!A1" display="日程事件子表(任务)"/>
+    <hyperlink ref="A4" location="用户表!A1" display="用户表"/>
+    <hyperlink ref="A10" location="标签表!A1" display="标签表"/>
+    <hyperlink ref="A11" location="系統設置表!A1" display="系统设置表"/>
+    <hyperlink ref="A12" location="'日程事件子表(里程碑)'!A1" display="日程事件子表(里程碑)"/>
+    <hyperlink ref="A13" location="'日程事件子表(周期)'!A1" display="日程事件子表(周期)"/>
+    <hyperlink ref="A14" location="Sheet3!A1" display="日程事件子表(任务)"/>
+    <hyperlink ref="A2" location="字典表!A1" display="字典类型表"/>
+    <hyperlink ref="A6" location="授权系人群组中间表!A1" display="授权系人群组中间表"/>
+    <hyperlink ref="A3" location="字典数据表!A1" display="字典数据表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1537,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D5" sqref="D5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1557,15 +1656,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1577,56 +1676,211 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>148</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1663,20 +1917,6 @@
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1687,7 +1927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -1709,15 +1949,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1738,62 +1978,62 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1847,7 +2087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -1869,15 +2109,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1898,62 +2138,62 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2007,7 +2247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -2029,15 +2269,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2058,77 +2298,77 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2175,7 +2415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -2197,15 +2437,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2226,7 +2466,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2235,157 +2475,23 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
+        <v>188</v>
+      </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
@@ -2471,15 +2577,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2509,13 +2615,13 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2605,15 +2711,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2643,13 +2749,13 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2739,15 +2845,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2777,13 +2883,147 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>147</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2867,30 +3107,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2" s="7">
         <v>43415</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2906,8 +3146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2924,15 +3164,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2944,179 +3184,105 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="A13" s="8"/>
       <c r="B13" s="9"/>
-      <c r="D13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>188</v>
-      </c>
+      <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5"/>
@@ -3150,10 +3316,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3170,15 +3336,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3190,146 +3356,122 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>63</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>57</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B8" s="5"/>
+        <v>213</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="D8" s="5" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>101</v>
+        <v>215</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>110</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
@@ -3340,22 +3482,42 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3372,15 +3534,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3401,75 +3563,371 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="B6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="D13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5"/>
@@ -3477,6 +3935,20 @@
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3488,7 +3960,146 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F15"/>
   <sheetViews>
@@ -3515,10 +4126,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="18"/>
+      <c r="E2" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3549,7 +4160,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3564,37 +4175,37 @@
         <v>34</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3665,12 +4276,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" activeCellId="1" sqref="F5 F4"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3692,10 +4303,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3726,7 +4337,7 @@
         <v>37</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3741,37 +4352,37 @@
         <v>32</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3816,7 +4427,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3855,297 +4466,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="237">
   <si>
     <t>表名</t>
   </si>
@@ -908,6 +908,10 @@
   </si>
   <si>
     <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签表（待删除）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1388,7 +1392,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1474,7 +1478,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>77</v>
@@ -1638,9 +1642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>

--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -21,8 +21,8 @@
     <sheet name="授权系人群组中间表" sheetId="8" r:id="rId7"/>
     <sheet name="日程事件表" sheetId="9" r:id="rId8"/>
     <sheet name="日程参与人表" sheetId="10" r:id="rId9"/>
-    <sheet name="标签表" sheetId="14" r:id="rId10"/>
-    <sheet name="提醒时间表" sheetId="11" r:id="rId11"/>
+    <sheet name="提醒时间表" sheetId="11" r:id="rId10"/>
+    <sheet name="标签表" sheetId="40" r:id="rId11"/>
     <sheet name="系統設置表" sheetId="29" r:id="rId12"/>
     <sheet name="日程事件子表(里程碑)" sheetId="31" r:id="rId13"/>
     <sheet name="日程事件子表(周期)" sheetId="32" r:id="rId14"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="230">
   <si>
     <t>表名</t>
   </si>
@@ -62,135 +62,812 @@
     <t>提醒时间表</t>
   </si>
   <si>
+    <t>实体名</t>
+  </si>
+  <si>
+    <t>属性名</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>字段中文名</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>用户头像</t>
+  </si>
+  <si>
+    <t>HEADIMG_URL</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>BRITHDAY</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>USER_SEX</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>用户类型</t>
+  </si>
+  <si>
+    <t>USER_TYPE</t>
+  </si>
+  <si>
+    <t>日程事件ID</t>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+  </si>
+  <si>
+    <t>日程事件名称</t>
+  </si>
+  <si>
+    <t>SCHEDULE_NAME</t>
+  </si>
+  <si>
+    <t>完成状态</t>
+  </si>
+  <si>
+    <t>日程参与人表ID</t>
+  </si>
+  <si>
+    <t>PLAYERS_ID</t>
+  </si>
+  <si>
+    <t>PLAYERS_STATUS</t>
+  </si>
+  <si>
+    <t>完成时间</t>
+  </si>
+  <si>
+    <t>PLAYERS_FINISH_DATE</t>
+  </si>
+  <si>
+    <t>参与人</t>
+  </si>
+  <si>
+    <t>提醒时间ID</t>
+  </si>
+  <si>
+    <t>REMIND_ID</t>
+  </si>
+  <si>
+    <t>参与人表ID</t>
+  </si>
+  <si>
+    <t>日程提醒时间</t>
+  </si>
+  <si>
+    <t>REMIND_DATE</t>
+  </si>
+  <si>
+    <t>LABEL_ID</t>
+  </si>
+  <si>
+    <t>USER_CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴宗煜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程主题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_OTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用戶token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程提醒时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义全部客户端表字典结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>USER_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REAL_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_CARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統設置表</t>
+  </si>
+  <si>
+    <t>GTD_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPK_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权关系人中间表</t>
+  </si>
+  <si>
+    <t>授权表主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表关系人主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPK_MEMBER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B_X</t>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_AUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0无，1男，2女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C</t>
+  </si>
+  <si>
+    <t>GTD_D</t>
+  </si>
+  <si>
+    <t>GTD_E</t>
+  </si>
+  <si>
+    <t>GTD_G</t>
+  </si>
+  <si>
+    <t>系统设置自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(里程碑)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_1</t>
+  </si>
+  <si>
+    <t>GTD_C_2</t>
+  </si>
+  <si>
+    <t>GTD_C_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_3</t>
+  </si>
+  <si>
+    <t>GTD_C_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(任务)</t>
+  </si>
+  <si>
+    <t>日程事件子表(周期)</t>
+  </si>
+  <si>
+    <t>日程事件子表(里程碑)</t>
+  </si>
+  <si>
+    <t>GTD_C_4</t>
+  </si>
+  <si>
+    <t>GTD_C_5</t>
+  </si>
+  <si>
+    <t>GTD_C_6</t>
+  </si>
+  <si>
+    <t>GTD_C_7</t>
+  </si>
+  <si>
+    <t>日程事件子表(任务)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(事件)</t>
+  </si>
+  <si>
+    <t>日程事件子表(备忘录)</t>
+  </si>
+  <si>
+    <t>日程事件子表(特殊日期)</t>
+  </si>
+  <si>
+    <t>日程事件子表(事件)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(备忘录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日常生活)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日常生活)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(特殊日期)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户消息队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_QUEUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑时刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datatime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILESTONE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILESTONE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILESTONE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期重复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期活性标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYCLE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYCLE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYCLE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYCLE_FALG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_X</t>
+  </si>
+  <si>
+    <t>GTD_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权系人群组中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_ANOTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是个人，2是群，3未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
-    <t>实体名</t>
-  </si>
-  <si>
-    <t>属性名</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>字段中文名</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>用户ID</t>
-  </si>
-  <si>
-    <t>USER_ID</t>
-  </si>
-  <si>
-    <t>varchar(11)</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>USER_NAME</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>用户头像</t>
-  </si>
-  <si>
-    <t>HEADIMG_URL</t>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-  </si>
-  <si>
-    <t>出生日期</t>
-  </si>
-  <si>
-    <t>BRITHDAY</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>USER_SEX</t>
-  </si>
-  <si>
-    <t>联系方式</t>
-  </si>
-  <si>
-    <t>用户类型</t>
-  </si>
-  <si>
-    <t>USER_TYPE</t>
-  </si>
-  <si>
-    <t>日程事件ID</t>
-  </si>
-  <si>
-    <t>SCHEDULE_ID</t>
-  </si>
-  <si>
-    <t>日程事件名称</t>
-  </si>
-  <si>
-    <t>SCHEDULE_NAME</t>
-  </si>
-  <si>
-    <t>完成状态</t>
-  </si>
-  <si>
-    <t>日程参与人表ID</t>
-  </si>
-  <si>
-    <t>PLAYERS_ID</t>
-  </si>
-  <si>
-    <t>PLAYERS_STATUS</t>
-  </si>
-  <si>
-    <t>完成时间</t>
-  </si>
-  <si>
-    <t>PLAYERS_FINISH_DATE</t>
-  </si>
-  <si>
-    <t>参与人</t>
-  </si>
-  <si>
-    <t>提醒时间ID</t>
-  </si>
-  <si>
-    <t>REMIND_ID</t>
-  </si>
-  <si>
-    <t>参与人表ID</t>
-  </si>
-  <si>
-    <t>日程提醒时间</t>
-  </si>
-  <si>
-    <t>REMIND_DATE</t>
+    <t>标签表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>标签ID</t>
   </si>
   <si>
-    <t>LABEL_ID</t>
-  </si>
-  <si>
     <t>标签名称</t>
   </si>
   <si>
@@ -203,715 +880,11 @@
     <t>LABEL_TYPE</t>
   </si>
   <si>
-    <t>USER_CONTACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒时间ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴宗煜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程主题备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_OTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用戶token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程提醒时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义全部客户端表字典结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
-    <t>USER_TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REAL_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_CARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統設置表</t>
-  </si>
-  <si>
-    <t>GTD_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPK_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权关系人中间表</t>
-  </si>
-  <si>
-    <t>授权表主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表关系人主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPK_MEMBER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B_X</t>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_AUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0无，1男，2女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C</t>
-  </si>
-  <si>
-    <t>GTD_D</t>
-  </si>
-  <si>
-    <t>GTD_E</t>
-  </si>
-  <si>
-    <t>GTD_F</t>
-  </si>
-  <si>
-    <t>GTD_G</t>
-  </si>
-  <si>
-    <t>系统设置自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(里程碑)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_1</t>
-  </si>
-  <si>
-    <t>对应日程子表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_TABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_2</t>
-  </si>
-  <si>
-    <t>GTD_C_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_3</t>
-  </si>
-  <si>
-    <t>GTD_C_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(任务)</t>
-  </si>
-  <si>
-    <t>日程事件子表(周期)</t>
-  </si>
-  <si>
-    <t>日程事件子表(里程碑)</t>
-  </si>
-  <si>
-    <t>GTD_C_4</t>
-  </si>
-  <si>
-    <t>GTD_C_5</t>
-  </si>
-  <si>
-    <t>GTD_C_6</t>
-  </si>
-  <si>
-    <t>GTD_C_7</t>
-  </si>
-  <si>
-    <t>日程事件子表(任务)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(事件)</t>
-  </si>
-  <si>
-    <t>日程事件子表(备忘录)</t>
-  </si>
-  <si>
-    <t>日程事件子表(特殊日期)</t>
-  </si>
-  <si>
-    <t>日程事件子表(事件)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(备忘录)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日常生活)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日常生活)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(特殊日期)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备用字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_RESERVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户消息队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_QUEUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里程碑日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里程碑时刻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里程碑子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datatime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MILESTONE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MILESTONE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MILESTONE_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期重复时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期活性标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYCLE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYCLE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYCLE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYCLE_FALG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_X</t>
-  </si>
-  <si>
-    <t>GTD_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权系人群组中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否固定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0默认为不固定，1固定；固定就不能再去修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISFIXED     </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_ANOTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_CONTACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1是个人，2是群，3未注册用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签表（待删除）</t>
+    <t>标签功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL_USAGE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1048,7 +1021,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1089,6 +1062,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1392,7 +1368,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B12" sqref="B12:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1414,18 +1390,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1433,23 +1409,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1457,7 +1433,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1465,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1473,79 +1449,79 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1642,159 +1618,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F11"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:F6"/>
     </sheetView>
@@ -1810,7 +1633,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1818,71 +1641,71 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1891,6 +1714,152 @@
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5"/>
@@ -1948,94 +1917,94 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2108,94 +2077,94 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2268,109 +2237,109 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2436,39 +2405,39 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2477,22 +2446,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2576,34 +2545,34 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2617,13 +2586,13 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2710,34 +2679,34 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2751,13 +2720,13 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2844,34 +2813,34 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2885,13 +2854,13 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2978,34 +2947,34 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3019,13 +2988,13 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3109,30 +3078,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B2" s="7">
         <v>43415</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3163,64 +3132,64 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3321,7 +3290,7 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3335,112 +3304,102 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5"/>
@@ -3533,7 +3492,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -3541,193 +3500,193 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="9"/>
       <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B13" s="9"/>
       <c r="D13" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3765,7 +3724,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3779,156 +3738,156 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3981,79 +3940,79 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4106,7 +4065,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4120,7 +4079,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -4128,86 +4087,86 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>111</v>
+        <v>219</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4297,7 +4256,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -4305,131 +4264,131 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">

--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -1365,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1405,128 +1405,128 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>222</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6"/>
@@ -1596,17 +1596,21 @@
       <c r="A36" s="6"/>
       <c r="B36" s="2"/>
     </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A4" location="用户表!A1" display="用户表"/>
-    <hyperlink ref="A10" location="标签表!A1" display="标签表"/>
-    <hyperlink ref="A11" location="系統設置表!A1" display="系统设置表"/>
-    <hyperlink ref="A12" location="'日程事件子表(里程碑)'!A1" display="日程事件子表(里程碑)"/>
-    <hyperlink ref="A13" location="'日程事件子表(周期)'!A1" display="日程事件子表(周期)"/>
-    <hyperlink ref="A14" location="Sheet3!A1" display="日程事件子表(任务)"/>
+    <hyperlink ref="A5" location="用户表!A1" display="用户表"/>
+    <hyperlink ref="A11" location="标签表!A1" display="标签表"/>
+    <hyperlink ref="A12" location="系統設置表!A1" display="系统设置表"/>
+    <hyperlink ref="A13" location="'日程事件子表(里程碑)'!A1" display="日程事件子表(里程碑)"/>
+    <hyperlink ref="A14" location="'日程事件子表(周期)'!A1" display="日程事件子表(周期)"/>
+    <hyperlink ref="A15" location="Sheet3!A1" display="日程事件子表(任务)"/>
     <hyperlink ref="A2" location="字典表!A1" display="字典类型表"/>
-    <hyperlink ref="A6" location="授权系人群组中间表!A1" display="授权系人群组中间表"/>
+    <hyperlink ref="A7" location="授权系人群组中间表!A1" display="授权系人群组中间表"/>
     <hyperlink ref="A3" location="字典数据表!A1" display="字典数据表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3289,9 +3293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>

--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -9,28 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
     <sheet name="更新日志" sheetId="23" r:id="rId2"/>
     <sheet name="字典表" sheetId="38" r:id="rId3"/>
     <sheet name="字典数据表" sheetId="39" r:id="rId4"/>
-    <sheet name="用户表" sheetId="4" r:id="rId5"/>
-    <sheet name="用户授权表" sheetId="24" r:id="rId6"/>
+    <sheet name="用户授权表" sheetId="24" r:id="rId5"/>
+    <sheet name="用户表" sheetId="4" r:id="rId6"/>
     <sheet name="授权系人群组中间表" sheetId="8" r:id="rId7"/>
     <sheet name="日程事件表" sheetId="9" r:id="rId8"/>
     <sheet name="日程参与人表" sheetId="10" r:id="rId9"/>
     <sheet name="提醒时间表" sheetId="11" r:id="rId10"/>
     <sheet name="标签表" sheetId="40" r:id="rId11"/>
     <sheet name="系統設置表" sheetId="29" r:id="rId12"/>
-    <sheet name="日程事件子表(里程碑)" sheetId="31" r:id="rId13"/>
-    <sheet name="日程事件子表(周期)" sheetId="32" r:id="rId14"/>
+    <sheet name="日程事件子表(日程)" sheetId="31" r:id="rId13"/>
+    <sheet name="日程事件子表(日常生活)" sheetId="36" r:id="rId14"/>
     <sheet name="日程事件子表(任务)" sheetId="33" r:id="rId15"/>
-    <sheet name="日程事件子表(事件)" sheetId="34" r:id="rId16"/>
+    <sheet name="日程事件子表(纪念日)" sheetId="37" r:id="rId16"/>
     <sheet name="日程事件子表(备忘录)" sheetId="35" r:id="rId17"/>
-    <sheet name="日程事件子表(日常生活)" sheetId="36" r:id="rId18"/>
-    <sheet name="日程事件子表(特殊日期)" sheetId="37" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="229">
   <si>
     <t>表名</t>
   </si>
@@ -284,607 +282,610 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义全部客户端表字典结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>USER_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REAL_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_CARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統設置表</t>
+  </si>
+  <si>
+    <t>GTD_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPK_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权关系人中间表</t>
+  </si>
+  <si>
+    <t>授权表主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表关系人主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPK_MEMBER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B_X</t>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_AUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0无，1男，2女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C</t>
+  </si>
+  <si>
+    <t>GTD_D</t>
+  </si>
+  <si>
+    <t>GTD_E</t>
+  </si>
+  <si>
+    <t>GTD_G</t>
+  </si>
+  <si>
+    <t>系统设置自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_2</t>
+  </si>
+  <si>
+    <t>GTD_C_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_3</t>
+  </si>
+  <si>
+    <t>GTD_C_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(任务)</t>
+  </si>
+  <si>
+    <t>GTD_C_4</t>
+  </si>
+  <si>
+    <t>GTD_C_5</t>
+  </si>
+  <si>
+    <t>日程事件子表(任务)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(备忘录)</t>
+  </si>
+  <si>
+    <t>GTD_C_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(备忘录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日常生活)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日常生活)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户消息队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_QUEUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILESTONE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_X</t>
+  </si>
+  <si>
+    <t>GTD_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权系人群组中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_ANOTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是个人，2是群，3未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>标签表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+  </si>
+  <si>
+    <t>标签名称</t>
+  </si>
+  <si>
+    <t>LABEL_NAME</t>
+  </si>
+  <si>
+    <t>标签类型</t>
+  </si>
+  <si>
+    <t>LABEL_TYPE</t>
+  </si>
+  <si>
+    <t>标签对应子表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL_TABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(纪念日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(纪念日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GTD_C_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义全部客户端表字典结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
-    <t>USER_TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REAL_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_CARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統設置表</t>
-  </si>
-  <si>
-    <t>GTD_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPK_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权关系人中间表</t>
-  </si>
-  <si>
-    <t>授权表主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表关系人主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPK_MEMBER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B_X</t>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_AUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0无，1男，2女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C</t>
-  </si>
-  <si>
-    <t>GTD_D</t>
-  </si>
-  <si>
-    <t>GTD_E</t>
-  </si>
-  <si>
-    <t>GTD_G</t>
-  </si>
-  <si>
-    <t>系统设置自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(里程碑)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GTD_C_1</t>
-  </si>
-  <si>
-    <t>GTD_C_2</t>
-  </si>
-  <si>
-    <t>GTD_C_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_3</t>
-  </si>
-  <si>
-    <t>GTD_C_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(任务)</t>
-  </si>
-  <si>
-    <t>日程事件子表(周期)</t>
-  </si>
-  <si>
-    <t>日程事件子表(里程碑)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GTD_C_4</t>
-  </si>
-  <si>
-    <t>GTD_C_5</t>
-  </si>
-  <si>
-    <t>GTD_C_6</t>
-  </si>
-  <si>
-    <t>GTD_C_7</t>
-  </si>
-  <si>
-    <t>日程事件子表(任务)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(事件)</t>
-  </si>
-  <si>
-    <t>日程事件子表(备忘录)</t>
-  </si>
-  <si>
-    <t>日程事件子表(特殊日期)</t>
-  </si>
-  <si>
-    <t>日程事件子表(事件)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(备忘录)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日常生活)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日常生活)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(特殊日期)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户消息队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_QUEUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里程碑日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里程碑时刻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里程碑子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datatime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MILESTONE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MILESTONE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MILESTONE_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期重复时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期活性标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYCLE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYCLE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYCLE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYCLE_FALG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_X</t>
-  </si>
-  <si>
-    <t>GTD_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权系人群组中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_ANOTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_CONTACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1是个人，2是群，3未注册用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签表</t>
-  </si>
-  <si>
-    <t>标签表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-  </si>
-  <si>
-    <t>标签名称</t>
-  </si>
-  <si>
-    <t>LABEL_NAME</t>
-  </si>
-  <si>
-    <t>标签类型</t>
-  </si>
-  <si>
-    <t>LABEL_TYPE</t>
-  </si>
-  <si>
-    <t>标签功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_USAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATATIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAN_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪念日字表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘录子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1368,7 +1369,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1390,18 +1391,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1413,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1421,12 +1422,12 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>66</v>
@@ -1458,7 +1459,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>70</v>
@@ -1474,59 +1475,51 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6"/>
@@ -1607,7 +1600,6 @@
     <hyperlink ref="A11" location="标签表!A1" display="标签表"/>
     <hyperlink ref="A12" location="系統設置表!A1" display="系统设置表"/>
     <hyperlink ref="A13" location="'日程事件子表(里程碑)'!A1" display="日程事件子表(里程碑)"/>
-    <hyperlink ref="A14" location="'日程事件子表(周期)'!A1" display="日程事件子表(周期)"/>
     <hyperlink ref="A15" location="Sheet3!A1" display="日程事件子表(任务)"/>
     <hyperlink ref="A2" location="字典表!A1" display="字典类型表"/>
     <hyperlink ref="A7" location="授权系人群组中间表!A1" display="授权系人群组中间表"/>
@@ -1646,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F2" s="18"/>
     </row>
@@ -1679,7 +1671,7 @@
         <v>42</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1694,7 +1686,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1761,7 +1753,7 @@
   <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:A44"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1778,7 +1770,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -1807,11 +1799,11 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>46</v>
@@ -1822,29 +1814,29 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -1852,17 +1844,17 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1924,13 +1916,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F2" s="18"/>
     </row>
@@ -1953,62 +1945,62 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2067,7 +2059,7 @@
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2084,13 +2076,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="F2" s="18"/>
     </row>
@@ -2113,73 +2105,65 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>160</v>
-      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>160</v>
-      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
@@ -2223,174 +2207,6 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -2412,13 +2228,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F2" s="18"/>
     </row>
@@ -2441,7 +2257,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2450,22 +2266,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2488,6 +2304,152 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
@@ -2535,7 +2497,7 @@
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2552,13 +2514,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="F2" s="18"/>
     </row>
@@ -2580,41 +2542,51 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
@@ -2669,7 +2641,7 @@
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2686,13 +2658,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F2" s="18"/>
     </row>
@@ -2714,295 +2686,33 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
@@ -3096,13 +2806,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="7">
         <v>43415</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
         <v>58</v>
@@ -3139,13 +2849,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="F2" s="18"/>
     </row>
@@ -3168,32 +2878,32 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3293,7 +3003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3309,13 +3021,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="F2" s="18"/>
     </row>
@@ -3338,62 +3050,62 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3476,6 +3188,208 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F17"/>
   <sheetViews>
@@ -3503,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="18"/>
     </row>
@@ -3586,14 +3500,14 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>19</v>
@@ -3601,17 +3515,17 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3619,7 +3533,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>25</v>
@@ -3670,7 +3584,7 @@
         <v>62</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>56</v>
@@ -3678,17 +3592,17 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3718,208 +3632,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3945,13 +3657,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F2" s="18"/>
     </row>
@@ -3974,29 +3686,29 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>56</v>
@@ -4004,14 +3716,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>56</v>
@@ -4067,7 +3779,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4090,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F2" s="20"/>
     </row>
@@ -4128,7 +3840,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -4143,49 +3855,65 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="10"/>
+      <c r="A8" s="10" t="s">
+        <v>209</v>
+      </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="D8" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="10"/>
+      <c r="A9" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="D9" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5"/>
@@ -4267,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F2" s="18"/>
     </row>
@@ -4335,17 +4063,17 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:6">

--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="230">
   <si>
     <t>表名</t>
   </si>
@@ -873,10 +873,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重复时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重复类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -886,6 +882,14 @@
   </si>
   <si>
     <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复停止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2058,7 +2062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2153,7 +2157,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -2162,7 +2166,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -2170,7 +2174,9 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
@@ -2585,7 +2591,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -2687,7 +2693,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -3191,7 +3197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="234">
   <si>
     <t>表名</t>
   </si>
@@ -890,6 +890,22 @@
   </si>
   <si>
     <t>重复状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1370,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1410,112 +1426,112 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>204</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6"/>
@@ -1593,20 +1609,16 @@
       <c r="A36" s="6"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A5" location="用户表!A1" display="用户表"/>
-    <hyperlink ref="A11" location="标签表!A1" display="标签表"/>
-    <hyperlink ref="A12" location="系統設置表!A1" display="系统设置表"/>
-    <hyperlink ref="A13" location="'日程事件子表(里程碑)'!A1" display="日程事件子表(里程碑)"/>
-    <hyperlink ref="A15" location="Sheet3!A1" display="日程事件子表(任务)"/>
+    <hyperlink ref="A4" location="用户表!A1" display="用户表"/>
+    <hyperlink ref="A10" location="标签表!A1" display="标签表"/>
+    <hyperlink ref="A11" location="系統設置表!A1" display="系统设置表"/>
+    <hyperlink ref="A12" location="'日程事件子表(里程碑)'!A1" display="日程事件子表(里程碑)"/>
+    <hyperlink ref="A14" location="Sheet3!A1" display="日程事件子表(任务)"/>
     <hyperlink ref="A2" location="字典表!A1" display="字典类型表"/>
-    <hyperlink ref="A7" location="授权系人群组中间表!A1" display="授权系人群组中间表"/>
+    <hyperlink ref="A6" location="授权系人群组中间表!A1" display="授权系人群组中间表"/>
     <hyperlink ref="A3" location="字典数据表!A1" display="字典数据表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2062,7 +2074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2838,7 +2850,7 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2913,11 +2925,19 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="B6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5"/>

--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -24,11 +24,12 @@
     <sheet name="提醒时间表" sheetId="11" r:id="rId10"/>
     <sheet name="标签表" sheetId="40" r:id="rId11"/>
     <sheet name="系統設置表" sheetId="29" r:id="rId12"/>
-    <sheet name="日程事件子表(日程)" sheetId="31" r:id="rId13"/>
-    <sheet name="日程事件子表(日常生活)" sheetId="36" r:id="rId14"/>
-    <sheet name="日程事件子表(任务)" sheetId="33" r:id="rId15"/>
-    <sheet name="日程事件子表(纪念日)" sheetId="37" r:id="rId16"/>
-    <sheet name="日程事件子表(备忘录)" sheetId="35" r:id="rId17"/>
+    <sheet name="计划表" sheetId="41" r:id="rId13"/>
+    <sheet name="日程事件子表(日程)" sheetId="31" r:id="rId14"/>
+    <sheet name="日程事件子表(日常生活)" sheetId="36" r:id="rId15"/>
+    <sheet name="日程事件子表(任务)" sheetId="33" r:id="rId16"/>
+    <sheet name="日程事件子表(纪念日)" sheetId="37" r:id="rId17"/>
+    <sheet name="日程事件子表(备忘录)" sheetId="35" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -809,10 +810,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CREATE_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -837,75 +834,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪念日字表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘录子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复停止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>截止日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪念日字表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备忘录子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复停止时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1388,7 +1389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2072,10 +2073,23 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2151,7 +2165,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2160,7 +2174,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
@@ -2169,7 +2183,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -2178,7 +2192,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -2187,7 +2201,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
@@ -2224,12 +2238,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2275,7 +2289,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2299,7 +2313,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2364,7 +2378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -2439,7 +2453,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2448,7 +2462,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
@@ -2457,7 +2471,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -2466,7 +2480,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -2510,7 +2524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -2561,7 +2575,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2585,7 +2599,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2594,7 +2608,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
@@ -2603,7 +2617,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -2654,7 +2668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -2705,7 +2719,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2729,7 +2743,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2850,7 +2864,7 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2926,17 +2940,17 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3029,8 +3043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3805,7 +3819,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3911,31 +3925,31 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>80</v>

--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
     <sheet name="更新日志" sheetId="23" r:id="rId2"/>
     <sheet name="字典表" sheetId="38" r:id="rId3"/>
     <sheet name="字典数据表" sheetId="39" r:id="rId4"/>
-    <sheet name="用户授权表" sheetId="24" r:id="rId5"/>
-    <sheet name="用户表" sheetId="4" r:id="rId6"/>
+    <sheet name="用户表" sheetId="4" r:id="rId5"/>
+    <sheet name="用户授权表" sheetId="24" r:id="rId6"/>
     <sheet name="授权系人群组中间表" sheetId="8" r:id="rId7"/>
     <sheet name="日程事件表" sheetId="9" r:id="rId8"/>
     <sheet name="日程参与人表" sheetId="10" r:id="rId9"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="242">
   <si>
     <t>表名</t>
   </si>
@@ -333,580 +333,613 @@
     <t>系統設置表</t>
   </si>
   <si>
+    <t>授权标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权关系人中间表</t>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_AUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0无，1男，2女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C</t>
+  </si>
+  <si>
+    <t>GTD_D</t>
+  </si>
+  <si>
+    <t>GTD_E</t>
+  </si>
+  <si>
+    <t>GTD_G</t>
+  </si>
+  <si>
+    <t>系统设置自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_2</t>
+  </si>
+  <si>
+    <t>GTD_C_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_3</t>
+  </si>
+  <si>
+    <t>GTD_C_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(任务)</t>
+  </si>
+  <si>
+    <t>GTD_C_4</t>
+  </si>
+  <si>
+    <t>GTD_C_5</t>
+  </si>
+  <si>
+    <t>日程事件子表(任务)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(备忘录)</t>
+  </si>
+  <si>
+    <t>GTD_C_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(备忘录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日常生活)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日常生活)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户消息队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_QUEUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILESTONE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_X</t>
+  </si>
+  <si>
+    <t>GTD_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权系人群组中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是个人，2是群，3未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>标签表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+  </si>
+  <si>
+    <t>标签名称</t>
+  </si>
+  <si>
+    <t>LABEL_NAME</t>
+  </si>
+  <si>
+    <t>标签类型</t>
+  </si>
+  <si>
+    <t>LABEL_TYPE</t>
+  </si>
+  <si>
+    <t>标签对应子表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL_TABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(纪念日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(纪念日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATATIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAN_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪念日字表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘录子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复停止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GTD_B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BPK_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_FLAG</t>
+    <t>自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_ANOTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_HEADIMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权关系人中间表</t>
-  </si>
-  <si>
-    <t>授权表主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表关系人主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPK_MEMBER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B_X</t>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_AUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0无，1男，2女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C</t>
-  </si>
-  <si>
-    <t>GTD_D</t>
-  </si>
-  <si>
-    <t>GTD_E</t>
-  </si>
-  <si>
-    <t>GTD_G</t>
-  </si>
-  <si>
-    <t>系统设置自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_2</t>
-  </si>
-  <si>
-    <t>GTD_C_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_3</t>
-  </si>
-  <si>
-    <t>GTD_C_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(任务)</t>
-  </si>
-  <si>
-    <t>GTD_C_4</t>
-  </si>
-  <si>
-    <t>GTD_C_5</t>
-  </si>
-  <si>
-    <t>日程事件子表(任务)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(备忘录)</t>
-  </si>
-  <si>
-    <t>GTD_C_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(备忘录)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日常生活)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日常生活)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户消息队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_QUEUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里程碑子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MILESTONE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_X</t>
-  </si>
-  <si>
-    <t>GTD_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权系人群组中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_ANOTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_CONTACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1是个人，2是群，3未注册用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签表</t>
-  </si>
-  <si>
-    <t>标签表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-  </si>
-  <si>
-    <t>标签名称</t>
-  </si>
-  <si>
-    <t>LABEL_NAME</t>
-  </si>
-  <si>
-    <t>标签类型</t>
-  </si>
-  <si>
-    <t>LABEL_TYPE</t>
-  </si>
-  <si>
-    <t>标签对应子表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_TABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(纪念日)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(纪念日)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATATIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAN_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日常子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪念日字表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备忘录子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复停止时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1043,7 +1076,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1084,6 +1117,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1412,18 +1451,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1444,7 +1483,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>66</v>
@@ -1476,7 +1515,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>70</v>
@@ -1492,42 +1531,42 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1654,10 +1693,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="18"/>
+      <c r="E2" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1787,15 +1826,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1816,11 +1855,11 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>46</v>
@@ -1831,29 +1870,29 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -1861,14 +1900,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>80</v>
@@ -1938,10 +1977,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="18"/>
+      <c r="E2" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1962,62 +2001,62 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2106,15 +2145,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="F2" s="18"/>
+      <c r="E2" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2135,37 +2174,37 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2174,7 +2213,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
@@ -2183,7 +2222,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -2192,7 +2231,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -2201,7 +2240,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
@@ -2260,15 +2299,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="18"/>
+      <c r="E2" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2289,7 +2328,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2298,22 +2337,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2400,15 +2439,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="18"/>
+      <c r="E2" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2429,7 +2468,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2438,22 +2477,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2462,7 +2501,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
@@ -2471,7 +2510,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -2480,7 +2519,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -2546,15 +2585,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" s="18"/>
+      <c r="E2" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2575,7 +2614,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2584,22 +2623,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2608,7 +2647,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
@@ -2617,7 +2656,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -2690,15 +2729,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="18"/>
+      <c r="E2" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2719,7 +2758,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2728,22 +2767,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2881,15 +2920,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="18"/>
+      <c r="E2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2910,47 +2949,47 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3043,8 +3082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3061,15 +3100,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="18"/>
+      <c r="E2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3090,62 +3129,62 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3228,208 +3267,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F17"/>
   <sheetViews>
@@ -3456,10 +3293,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3573,7 +3410,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>25</v>
@@ -3632,17 +3469,17 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3675,12 +3512,229 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F11"/>
+  <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="A7" sqref="A7:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3697,15 +3751,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="18"/>
+      <c r="E2" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3717,56 +3771,56 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>56</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>96</v>
+        <v>217</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>96</v>
+        <v>217</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3803,6 +3857,13 @@
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3841,10 +3902,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3880,7 +3941,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -3895,29 +3956,29 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>56</v>
@@ -3925,31 +3986,31 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="10" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>80</v>
@@ -4034,10 +4095,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="18"/>
+      <c r="E2" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4103,17 +4164,17 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:6">

--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="243">
   <si>
     <t>表名</t>
   </si>
@@ -940,6 +940,10 @@
   </si>
   <si>
     <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECUTE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3516,8 +3520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4072,8 +4076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4126,7 +4130,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>36</v>
+        <v>242</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>55</v>

--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="246">
   <si>
     <t>表名</t>
   </si>
@@ -863,10 +863,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PLAYER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -879,71 +875,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_HEADIMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECUTE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是未授权，1是授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据归属人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>USER_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_HEADIMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_CONTACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXECUTE_ID</t>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3521,7 +3533,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3574,22 +3586,22 @@
         <v>221</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>56</v>
@@ -3604,7 +3616,7 @@
         <v>121</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>56</v>
@@ -3612,17 +3624,17 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>229</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3631,10 +3643,10 @@
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>80</v>
@@ -3642,14 +3654,14 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>80</v>
@@ -3659,12 +3671,14 @@
       <c r="A10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>86</v>
@@ -3672,14 +3686,14 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>160</v>
@@ -3696,18 +3710,26 @@
         <v>161</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5"/>
@@ -3737,8 +3759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3806,7 +3828,7 @@
         <v>214</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>216</v>
@@ -4076,7 +4098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -4130,7 +4152,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>55</v>

--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="244">
   <si>
     <t>表名</t>
   </si>
@@ -716,14 +716,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAN_VALUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2220,7 +2212,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2238,7 +2230,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -2247,7 +2239,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -2256,7 +2248,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
@@ -2344,7 +2336,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2368,7 +2360,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2508,7 +2500,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2517,7 +2509,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
@@ -2526,7 +2518,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -2535,7 +2527,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -2630,7 +2622,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2654,7 +2646,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2663,7 +2655,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
@@ -2672,7 +2664,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -2774,7 +2766,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2798,7 +2790,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2995,17 +2987,17 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3556,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F2" s="20"/>
     </row>
@@ -3579,29 +3571,29 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>56</v>
@@ -3616,7 +3608,7 @@
         <v>121</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>56</v>
@@ -3624,17 +3616,17 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3643,10 +3635,10 @@
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>80</v>
@@ -3654,14 +3646,14 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>80</v>
@@ -3672,13 +3664,13 @@
         <v>85</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>86</v>
@@ -3686,14 +3678,14 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>160</v>
@@ -3710,22 +3702,22 @@
         <v>161</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>56</v>
@@ -3759,7 +3751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3783,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F2" s="20"/>
     </row>
@@ -3806,47 +3798,47 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3905,8 +3897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4012,12 +4004,12 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>183</v>
@@ -4027,20 +4019,12 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="10" t="s">
-        <v>186</v>
-      </c>
+      <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>80</v>
-      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5"/>
@@ -4152,7 +4136,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>55</v>

--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -629,10 +629,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1是个人，2是群，3未注册用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>字典表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -948,6 +944,10 @@
   </si>
   <si>
     <t>GROUP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是个人，2是群，0未注册用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>136</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>70</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1563,7 +1563,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>113</v>
@@ -1834,7 +1834,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -1863,11 +1863,11 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>46</v>
@@ -1878,14 +1878,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>160</v>
@@ -1893,14 +1893,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -1908,14 +1908,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>80</v>
@@ -2153,13 +2153,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F2" s="20"/>
     </row>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -2212,7 +2212,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -2593,13 +2593,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F2" s="20"/>
     </row>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2987,17 +2987,17 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3522,10 +3522,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F2" s="20"/>
     </row>
@@ -3571,171 +3571,185 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>121</v>
-      </c>
+      <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>223</v>
+        <v>121</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>226</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>80</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>237</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3775,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F2" s="20"/>
     </row>
@@ -3798,47 +3812,47 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3897,7 +3911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
@@ -3959,7 +3973,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -3974,7 +3988,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -4004,18 +4018,18 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4136,7 +4150,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>55</v>

--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="日程事件子表(任务)" sheetId="33" r:id="rId16"/>
     <sheet name="日程事件子表(纪念日)" sheetId="37" r:id="rId17"/>
     <sheet name="日程事件子表(备忘录)" sheetId="35" r:id="rId18"/>
+    <sheet name="Sheet1" sheetId="42" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="265">
   <si>
     <t>表名</t>
   </si>
@@ -85,9 +86,6 @@
     <t>用户ID</t>
   </si>
   <si>
-    <t>USER_ID</t>
-  </si>
-  <si>
     <t>varchar(11)</t>
   </si>
   <si>
@@ -97,243 +95,606 @@
     <t>用户名</t>
   </si>
   <si>
-    <t>USER_NAME</t>
-  </si>
-  <si>
     <t>varchar(10)</t>
   </si>
   <si>
     <t>用户头像</t>
   </si>
   <si>
-    <t>HEADIMG_URL</t>
-  </si>
-  <si>
     <t>varchar(200)</t>
   </si>
   <si>
     <t>出生日期</t>
   </si>
   <si>
-    <t>BRITHDAY</t>
-  </si>
-  <si>
     <t>性别</t>
   </si>
   <si>
-    <t>USER_SEX</t>
-  </si>
-  <si>
     <t>联系方式</t>
   </si>
   <si>
     <t>用户类型</t>
   </si>
   <si>
-    <t>USER_TYPE</t>
-  </si>
-  <si>
     <t>日程事件ID</t>
   </si>
   <si>
+    <t>日程事件名称</t>
+  </si>
+  <si>
+    <t>日程参与人表ID</t>
+  </si>
+  <si>
+    <t>PLAYERS_ID</t>
+  </si>
+  <si>
+    <t>完成时间</t>
+  </si>
+  <si>
+    <t>参与人</t>
+  </si>
+  <si>
+    <t>提醒时间ID</t>
+  </si>
+  <si>
+    <t>REMIND_ID</t>
+  </si>
+  <si>
+    <t>参与人表ID</t>
+  </si>
+  <si>
+    <t>日程提醒时间</t>
+  </si>
+  <si>
+    <t>REMIND_DATE</t>
+  </si>
+  <si>
+    <t>日程参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴宗煜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程主题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用戶token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程提醒时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义全部客户端表字典结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>真实姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統設置表</t>
+  </si>
+  <si>
+    <t>授权标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权关系人中间表</t>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0无，1男，2女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C</t>
+  </si>
+  <si>
+    <t>GTD_D</t>
+  </si>
+  <si>
+    <t>GTD_E</t>
+  </si>
+  <si>
+    <t>GTD_G</t>
+  </si>
+  <si>
+    <t>系统设置自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_2</t>
+  </si>
+  <si>
+    <t>GTD_C_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_3</t>
+  </si>
+  <si>
+    <t>GTD_C_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(任务)</t>
+  </si>
+  <si>
+    <t>GTD_C_4</t>
+  </si>
+  <si>
+    <t>GTD_C_5</t>
+  </si>
+  <si>
+    <t>日程事件子表(任务)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(备忘录)</t>
+  </si>
+  <si>
+    <t>GTD_C_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(备忘录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日常生活)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日常生活)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户消息队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILESTONE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_X</t>
+  </si>
+  <si>
+    <t>GTD_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权系人群组中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>日程事件名称</t>
-  </si>
-  <si>
-    <t>SCHEDULE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>标签表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+  </si>
+  <si>
+    <t>标签名称</t>
+  </si>
+  <si>
+    <t>标签类型</t>
+  </si>
+  <si>
+    <t>标签对应子表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(纪念日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(纪念日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATATIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成状态</t>
-  </si>
-  <si>
-    <t>日程参与人表ID</t>
-  </si>
-  <si>
-    <t>PLAYERS_ID</t>
-  </si>
-  <si>
-    <t>PLAYERS_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成时间</t>
-  </si>
-  <si>
-    <t>PLAYERS_FINISH_DATE</t>
-  </si>
-  <si>
-    <t>参与人</t>
-  </si>
-  <si>
-    <t>提醒时间ID</t>
-  </si>
-  <si>
-    <t>REMIND_ID</t>
-  </si>
-  <si>
-    <t>参与人表ID</t>
-  </si>
-  <si>
-    <t>日程提醒时间</t>
-  </si>
-  <si>
-    <t>REMIND_DATE</t>
-  </si>
-  <si>
-    <t>LABEL_ID</t>
-  </si>
-  <si>
-    <t>USER_CONTACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒时间ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪念日字表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘录子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复停止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>varchar(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GTD_B_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>varchar(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吴宗煜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程主题备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_OTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用戶token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程提醒时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义全部客户端表字典结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
-    <t>USER_TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REAL_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_CARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統設置表</t>
-  </si>
-  <si>
-    <t>授权标识</t>
+    <t>被授权联系人别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -341,243 +702,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>授权关系人中间表</t>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_AUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0无，1男，2女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C</t>
-  </si>
-  <si>
-    <t>GTD_D</t>
-  </si>
-  <si>
-    <t>GTD_E</t>
-  </si>
-  <si>
-    <t>GTD_G</t>
-  </si>
-  <si>
-    <t>系统设置自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_2</t>
-  </si>
-  <si>
-    <t>GTD_C_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_3</t>
-  </si>
-  <si>
-    <t>GTD_C_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(任务)</t>
-  </si>
-  <si>
-    <t>GTD_C_4</t>
-  </si>
-  <si>
-    <t>GTD_C_5</t>
-  </si>
-  <si>
-    <t>日程事件子表(任务)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(备忘录)</t>
-  </si>
-  <si>
-    <t>GTD_C_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(备忘录)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日常生活)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日常生活)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户消息队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_QUEUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里程碑子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MILESTONE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_X</t>
-  </si>
-  <si>
-    <t>GTD_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权系人群组中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
+    <t>0是未授权，1是授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据归属人ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -585,369 +714,329 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签表</t>
-  </si>
-  <si>
-    <t>标签表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-  </si>
-  <si>
-    <t>标签名称</t>
-  </si>
-  <si>
-    <t>LABEL_NAME</t>
-  </si>
-  <si>
-    <t>标签类型</t>
-  </si>
-  <si>
-    <t>LABEL_TYPE</t>
-  </si>
-  <si>
-    <t>标签对应子表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_TABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(纪念日)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(纪念日)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATATIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日常子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪念日字表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备忘录子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复停止时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系群组主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系群组主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群成员主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMBER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_ANOTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_HEADIMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_CONTACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXECUTE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0是未授权，1是授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据归属人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1是个人，2是群，0未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zt</t>
+  </si>
+  <si>
+    <t>zv</t>
+  </si>
+  <si>
+    <t>zt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zkv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hIU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uCt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ran</t>
+  </si>
+  <si>
+    <t>被授权联系人别称拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rNpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+  </si>
+  <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji</t>
+  </si>
+  <si>
+    <t>ji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>son</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0非本地；1本地日历 默认非本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否本地</t>
+  </si>
+  <si>
+    <t>是否本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地日程id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0未发送，1同意发送，2拒绝发送，3未注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程发送状态</t>
+  </si>
+  <si>
+    <t>日程发送状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0不可修改，1可修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划编号</t>
+  </si>
+  <si>
+    <t>计划名</t>
+  </si>
+  <si>
+    <t>计划描述</t>
+  </si>
+  <si>
+    <t>计划描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名称表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_J_H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1084,7 +1173,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1146,11 +1235,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1437,7 +1532,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1459,18 +1554,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1478,31 +1573,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1510,71 +1605,71 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>5</v>
+        <v>247</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1668,6 +1763,9 @@
     <hyperlink ref="A2" location="字典表!A1" display="字典类型表"/>
     <hyperlink ref="A6" location="授权系人群组中间表!A1" display="授权系人群组中间表"/>
     <hyperlink ref="A3" location="字典数据表!A1" display="字典数据表"/>
+    <hyperlink ref="A5" location="用户授权表!A1" display="用户授权表"/>
+    <hyperlink ref="A7" location="日程事件表!A1" display="日程事件表"/>
+    <hyperlink ref="A8" location="日程参与人表!A1" display="日程参与人表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1676,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F11"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1701,10 +1799,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1725,47 +1823,47 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1803,21 +1901,29 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A14" location="一览!A1" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F11"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1834,15 +1940,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1863,14 +1969,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>46</v>
+        <v>252</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
@@ -1878,29 +1984,29 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -1908,17 +2014,17 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>173</v>
+        <v>255</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1949,21 +2055,29 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A14" location="一览!A1" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A2" sqref="A2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1980,15 +2094,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2009,62 +2123,62 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>102</v>
+        <v>250</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2109,24 +2223,183 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A16" location="一览!A1" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A14" location="一览!A1" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2153,15 +2426,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2182,37 +2455,37 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2221,7 +2494,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
@@ -2230,7 +2503,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -2239,7 +2512,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -2248,7 +2521,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
@@ -2307,15 +2580,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2336,7 +2609,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2345,22 +2618,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2447,15 +2720,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2476,7 +2749,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2485,22 +2758,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2509,7 +2782,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
@@ -2518,7 +2791,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -2527,7 +2800,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -2593,15 +2866,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2622,7 +2895,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2631,22 +2904,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2655,7 +2928,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
@@ -2664,7 +2937,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -2737,15 +3010,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2766,7 +3039,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2775,22 +3048,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2850,6 +3123,19 @@
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2871,30 +3157,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B2" s="7">
         <v>43415</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2908,10 +3194,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F17"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2928,15 +3214,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2957,48 +3243,40 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>199</v>
-      </c>
+      <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>202</v>
-      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5"/>
@@ -3029,8 +3307,8 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -3038,14 +3316,14 @@
     <row r="12" spans="1:6">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
@@ -3070,28 +3348,30 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+    <row r="19" spans="1:1">
+      <c r="A19" s="24" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A19" location="一览!A1" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F17"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3108,15 +3388,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3137,63 +3417,55 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>154</v>
-      </c>
+      <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>158</v>
-      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5"/>
@@ -3217,8 +3489,8 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -3226,14 +3498,14 @@
     <row r="12" spans="1:6">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
@@ -3258,28 +3530,29 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+    <row r="19" spans="1:1">
+      <c r="A19" s="24" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A19" location="一览!A1" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F17"/>
+  <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3301,10 +3574,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3332,99 +3605,99 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>12</v>
@@ -3432,29 +3705,29 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B12" s="9"/>
       <c r="D12" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -3462,32 +3735,32 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B13" s="9"/>
       <c r="D13" s="8" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3511,21 +3784,29 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A20" location="一览!A1" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F17"/>
+  <dimension ref="A2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" activeCellId="1" sqref="B11 D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3542,15 +3823,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="F2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3571,170 +3852,170 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>232</v>
-      </c>
+      <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>160</v>
-      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3751,11 +4032,19 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A20" location="一览!A1" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3763,10 +4052,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3783,15 +4072,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="F2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3812,48 +4101,40 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>214</v>
-      </c>
+      <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>216</v>
-      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5"/>
@@ -3890,18 +4171,19 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+    <row r="14" spans="1:6">
+      <c r="A14" s="24" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A14" location="一览!A1" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3909,10 +4191,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3934,10 +4216,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="22"/>
+      <c r="E2" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3958,93 +4240,105 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="10"/>
+      <c r="A9" s="10" t="s">
+        <v>219</v>
+      </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>221</v>
+      </c>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
@@ -4082,11 +4376,19 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A18" location="一览!A1" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -4094,10 +4396,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4119,10 +4421,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4143,74 +4445,76 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>60</v>
+        <v>228</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="D7" s="5" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
@@ -4218,67 +4522,103 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>239</v>
+      </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="F14" s="4"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="24" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A17" location="一览!A1" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="267">
   <si>
     <t>表名</t>
   </si>
@@ -1037,6 +1037,14 @@
   </si>
   <si>
     <t>GTD_J_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是未被添加，1是同意，2是拉黑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1235,6 +1243,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1243,9 +1254,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1799,10 +1807,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1902,7 +1910,7 @@
       <c r="F11" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="21" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1945,10 +1953,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2056,7 +2064,7 @@
       <c r="F11" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="21" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2099,10 +2107,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2224,7 +2232,7 @@
       <c r="F13" s="4"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="21" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2266,10 +2274,10 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="F1" s="21"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -2386,7 +2394,7 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="21" t="s">
         <v>182</v>
       </c>
       <c r="B14" s="1"/>
@@ -2431,10 +2439,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2585,10 +2593,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2725,10 +2733,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2871,10 +2879,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3015,10 +3023,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3196,7 +3204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -3219,10 +3227,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3349,7 +3357,7 @@
       <c r="F16" s="4"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="21" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3393,10 +3401,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3531,7 +3539,7 @@
       <c r="F16" s="4"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="21" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3574,10 +3582,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3785,7 +3793,7 @@
       <c r="F17" s="4"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="21" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3805,8 +3813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" activeCellId="1" sqref="B11 D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3828,10 +3836,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3881,7 +3889,9 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
         <v>203</v>
@@ -3937,7 +3947,9 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
         <v>204</v>
@@ -3980,8 +3992,12 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>266</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -4033,7 +4049,7 @@
       <c r="F17" s="4"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="21" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4077,10 +4093,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4172,7 +4188,7 @@
       <c r="F11" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="21" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4194,7 +4210,7 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4216,10 +4232,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4377,7 +4393,7 @@
       <c r="F15" s="4"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="21" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4399,7 +4415,7 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A4" sqref="A4:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4421,10 +4437,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4607,7 +4623,7 @@
       <c r="F14" s="4"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="21" t="s">
         <v>182</v>
       </c>
     </row>

--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -20,17 +20,18 @@
     <sheet name="用户授权表" sheetId="24" r:id="rId6"/>
     <sheet name="授权系人群组中间表" sheetId="8" r:id="rId7"/>
     <sheet name="日程事件表" sheetId="9" r:id="rId8"/>
-    <sheet name="日程参与人表" sheetId="10" r:id="rId9"/>
-    <sheet name="提醒时间表" sheetId="11" r:id="rId10"/>
-    <sheet name="标签表" sheetId="40" r:id="rId11"/>
-    <sheet name="系統設置表" sheetId="29" r:id="rId12"/>
-    <sheet name="计划表" sheetId="41" r:id="rId13"/>
-    <sheet name="日程事件子表(日程)" sheetId="31" r:id="rId14"/>
-    <sheet name="日程事件子表(日常生活)" sheetId="36" r:id="rId15"/>
-    <sheet name="日程事件子表(任务)" sheetId="33" r:id="rId16"/>
-    <sheet name="日程事件子表(纪念日)" sheetId="37" r:id="rId17"/>
-    <sheet name="日程事件子表(备忘录)" sheetId="35" r:id="rId18"/>
-    <sheet name="Sheet1" sheetId="42" r:id="rId19"/>
+    <sheet name="本地日历表" sheetId="43" r:id="rId9"/>
+    <sheet name="日程参与人表" sheetId="10" r:id="rId10"/>
+    <sheet name="提醒时间表" sheetId="11" r:id="rId11"/>
+    <sheet name="标签表" sheetId="40" r:id="rId12"/>
+    <sheet name="系統設置表" sheetId="29" r:id="rId13"/>
+    <sheet name="计划表" sheetId="41" r:id="rId14"/>
+    <sheet name="日程事件子表(日程)" sheetId="31" r:id="rId15"/>
+    <sheet name="日程事件子表(日常生活)" sheetId="36" r:id="rId16"/>
+    <sheet name="日程事件子表(任务)" sheetId="33" r:id="rId17"/>
+    <sheet name="日程事件子表(纪念日)" sheetId="37" r:id="rId18"/>
+    <sheet name="日程事件子表(备忘录)" sheetId="35" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="42" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="271">
   <si>
     <t>表名</t>
   </si>
@@ -301,750 +302,766 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GTD_D</t>
+  </si>
+  <si>
+    <t>GTD_E</t>
+  </si>
+  <si>
+    <t>GTD_G</t>
+  </si>
+  <si>
+    <t>系统设置自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_2</t>
+  </si>
+  <si>
+    <t>GTD_C_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_3</t>
+  </si>
+  <si>
+    <t>GTD_C_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(任务)</t>
+  </si>
+  <si>
+    <t>GTD_C_4</t>
+  </si>
+  <si>
+    <t>GTD_C_5</t>
+  </si>
+  <si>
+    <t>日程事件子表(任务)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(备忘录)</t>
+  </si>
+  <si>
+    <t>GTD_C_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(备忘录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日常生活)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日常生活)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户消息队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILESTONE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_X</t>
+  </si>
+  <si>
+    <t>GTD_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权系人群组中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>标签表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+  </si>
+  <si>
+    <t>标签名称</t>
+  </si>
+  <si>
+    <t>标签类型</t>
+  </si>
+  <si>
+    <t>标签对应子表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(纪念日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(纪念日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATATIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪念日字表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘录子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复停止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是未授权，1是授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据归属人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zt</t>
+  </si>
+  <si>
+    <t>zv</t>
+  </si>
+  <si>
+    <t>zt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zkv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hIU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uCt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ran</t>
+  </si>
+  <si>
+    <t>被授权联系人别称拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rNpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+  </si>
+  <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji</t>
+  </si>
+  <si>
+    <t>ji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>son</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0非本地；1本地日历 默认非本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否本地</t>
+  </si>
+  <si>
+    <t>是否本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地日程id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0未发送，1同意发送，2拒绝发送，3未注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程发送状态</t>
+  </si>
+  <si>
+    <t>日程发送状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0不可修改，1可修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划编号</t>
+  </si>
+  <si>
+    <t>计划名</t>
+  </si>
+  <si>
+    <t>计划描述</t>
+  </si>
+  <si>
+    <t>计划描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名称表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是未被添加，1是同意，2是拉黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是个人，2是群，0未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GTD_C</t>
-  </si>
-  <si>
-    <t>GTD_D</t>
-  </si>
-  <si>
-    <t>GTD_E</t>
-  </si>
-  <si>
-    <t>GTD_G</t>
-  </si>
-  <si>
-    <t>系统设置自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_2</t>
-  </si>
-  <si>
-    <t>GTD_C_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_3</t>
-  </si>
-  <si>
-    <t>GTD_C_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(任务)</t>
-  </si>
-  <si>
-    <t>GTD_C_4</t>
-  </si>
-  <si>
-    <t>GTD_C_5</t>
-  </si>
-  <si>
-    <t>日程事件子表(任务)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(备忘录)</t>
-  </si>
-  <si>
-    <t>GTD_C_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(备忘录)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日常生活)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日常生活)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户消息队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里程碑子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MILESTONE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_X</t>
-  </si>
-  <si>
-    <t>GTD_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权系人群组中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签表</t>
-  </si>
-  <si>
-    <t>标签表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-  </si>
-  <si>
-    <t>标签名称</t>
-  </si>
-  <si>
-    <t>标签类型</t>
-  </si>
-  <si>
-    <t>标签对应子表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(纪念日)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(纪念日)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATATIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日常子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪念日字表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备忘录子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复停止时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系群组主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系群组主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群成员主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0是未授权，1是授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据归属人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1是个人，2是群，0未注册用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zt</t>
-  </si>
-  <si>
-    <t>zv</t>
-  </si>
-  <si>
-    <t>zt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zkv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hIU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uCt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ran</t>
-  </si>
-  <si>
-    <t>被授权联系人别称拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rNpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bmi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划ID</t>
-  </si>
-  <si>
-    <t>计划ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji</t>
-  </si>
-  <si>
-    <t>ji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>son</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0非本地；1本地日历 默认非本地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否本地</t>
-  </si>
-  <si>
-    <t>是否本地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地日程id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0未发送，1同意发送，2拒绝发送，3未注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程发送状态</t>
-  </si>
-  <si>
-    <t>日程发送状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0不可修改，1可修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒时间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lau</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划编号</t>
-  </si>
-  <si>
-    <t>计划名</t>
-  </si>
-  <si>
-    <t>计划描述</t>
-  </si>
-  <si>
-    <t>计划描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划名称表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_J_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0是未被添加，1是同意，2是拉黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划表</t>
+  </si>
+  <si>
+    <t>本地日历表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地日历表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1181,7 +1198,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1245,6 +1262,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1537,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1562,18 +1582,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1594,7 +1614,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>52</v>
@@ -1602,7 +1622,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>53</v>
@@ -1618,7 +1638,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>55</v>
@@ -1626,7 +1646,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>56</v>
@@ -1642,51 +1662,59 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>136</v>
+        <v>266</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>137</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>97</v>
+        <v>267</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6"/>
@@ -1759,6 +1787,14 @@
     <row r="36" spans="1:2">
       <c r="A36" s="6"/>
       <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1766,14 +1802,15 @@
     <hyperlink ref="A4" location="用户表!A1" display="用户表"/>
     <hyperlink ref="A10" location="标签表!A1" display="标签表"/>
     <hyperlink ref="A11" location="系統設置表!A1" display="系统设置表"/>
-    <hyperlink ref="A12" location="'日程事件子表(里程碑)'!A1" display="日程事件子表(里程碑)"/>
-    <hyperlink ref="A14" location="Sheet3!A1" display="日程事件子表(任务)"/>
+    <hyperlink ref="A14" location="'日程事件子表(里程碑)'!A1" display="日程事件子表(里程碑)"/>
+    <hyperlink ref="A16" location="Sheet3!A1" display="日程事件子表(任务)"/>
     <hyperlink ref="A2" location="字典表!A1" display="字典类型表"/>
     <hyperlink ref="A6" location="授权系人群组中间表!A1" display="授权系人群组中间表"/>
     <hyperlink ref="A3" location="字典数据表!A1" display="字典数据表"/>
     <hyperlink ref="A5" location="用户授权表!A1" display="用户授权表"/>
     <hyperlink ref="A7" location="日程事件表!A1" display="日程事件表"/>
     <hyperlink ref="A8" location="日程参与人表!A1" display="日程参与人表"/>
+    <hyperlink ref="A12" location="计划表!A1" display="计划表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1781,6 +1818,236 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A17" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
@@ -1807,10 +2074,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="22"/>
+      <c r="E2" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1911,7 +2178,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1926,7 +2193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
@@ -1948,15 +2215,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1977,14 +2244,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
@@ -1992,29 +2259,29 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -2022,14 +2289,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>63</v>
@@ -2065,7 +2332,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2080,7 +2347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F16"/>
   <sheetViews>
@@ -2107,10 +2374,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="22"/>
+      <c r="E2" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2131,62 +2398,62 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2233,7 +2500,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2248,12 +2515,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2269,15 +2536,15 @@
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="F1" s="22"/>
+      <c r="E1" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -2298,55 +2565,63 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="B6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5"/>
@@ -2395,7 +2670,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
@@ -2412,7 +2687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -2434,15 +2709,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="22"/>
+      <c r="E2" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2463,37 +2738,37 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2502,7 +2777,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
@@ -2511,7 +2786,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -2520,7 +2795,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -2529,7 +2804,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
@@ -2566,7 +2841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -2588,15 +2863,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="22"/>
+      <c r="E2" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2617,7 +2892,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2626,22 +2901,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2706,7 +2981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -2728,15 +3003,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="22"/>
+      <c r="E2" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2757,7 +3032,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2766,22 +3041,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2790,7 +3065,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
@@ -2799,7 +3074,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -2808,7 +3083,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -2852,7 +3127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -2874,15 +3149,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="22"/>
+      <c r="E2" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2903,7 +3178,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2912,22 +3187,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2936,7 +3211,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
@@ -2945,7 +3220,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -2996,7 +3271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -3018,15 +3293,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="22"/>
+      <c r="E2" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3047,7 +3322,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -3056,22 +3331,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -3131,19 +3406,6 @@
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3195,6 +3457,19 @@
       <c r="C3" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3222,15 +3497,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="22"/>
+      <c r="E2" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3251,32 +3526,32 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3358,7 +3633,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3396,15 +3671,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="22"/>
+      <c r="E2" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3425,47 +3700,47 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3540,7 +3815,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3560,7 +3835,7 @@
   <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3582,10 +3857,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3613,7 +3888,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>43</v>
@@ -3628,7 +3903,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>17</v>
@@ -3643,7 +3918,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>19</v>
@@ -3658,7 +3933,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>17</v>
@@ -3673,7 +3948,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>17</v>
@@ -3688,7 +3963,7 @@
         <v>62</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>63</v>
@@ -3705,7 +3980,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>12</v>
@@ -3720,7 +3995,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>14</v>
@@ -3735,7 +4010,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -3750,7 +4025,7 @@
         <v>48</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>43</v>
@@ -3758,17 +4033,17 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3794,7 +4069,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3813,8 +4088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3836,10 +4111,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" s="22"/>
+      <c r="E2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3860,29 +4135,29 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>43</v>
@@ -3890,27 +4165,27 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>43</v>
@@ -3918,29 +4193,29 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>63</v>
@@ -3948,27 +4223,27 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>63</v>
@@ -3979,13 +4254,13 @@
         <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>69</v>
@@ -3993,10 +4268,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
@@ -4004,31 +4279,31 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>43</v>
@@ -4050,7 +4325,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4093,10 +4368,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="22"/>
+      <c r="E2" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4117,32 +4392,32 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4189,7 +4464,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4210,7 +4485,7 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C32" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4232,10 +4507,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="24"/>
+      <c r="E2" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4263,7 +4538,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>43</v>
@@ -4271,14 +4546,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>44</v>
@@ -4286,29 +4561,29 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>43</v>
@@ -4316,44 +4591,44 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -4394,7 +4669,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4412,10 +4687,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F17"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4432,15 +4707,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>268</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="22"/>
+      <c r="E2" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4452,179 +4727,102 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>235</v>
-      </c>
+      <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>239</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>241</v>
-      </c>
+      <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>240</v>
-      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>242</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="21" t="s">
-        <v>182</v>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="21" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4633,9 +4831,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A17" location="一览!A1" display="返回"/>
+    <hyperlink ref="A18" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\GTD2\A-开发相关文档素材\2.数据库表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dch\Documents\WeChat Files\d6318167\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="277">
   <si>
     <t>表名</t>
   </si>
@@ -556,10 +556,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DATATIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1026,42 +1022,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0是未被添加，1是同意，2是拉黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是个人，2是群，0未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划表</t>
+  </si>
+  <si>
+    <t>本地日历表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地日历表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>状态标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0是未被添加，1是同意，2是拉黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1是个人，2是群，0未注册用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划表</t>
-  </si>
-  <si>
-    <t>本地日历表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地日历表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_A</t>
+    <t>状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1560,7 +1584,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1622,7 +1646,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>53</v>
@@ -1638,7 +1662,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>55</v>
@@ -1662,18 +1686,18 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1819,10 +1843,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F17"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B9"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1875,7 +1899,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -1890,7 +1914,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -1905,7 +1929,7 @@
         <v>46</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -1916,13 +1940,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>104</v>
@@ -1930,14 +1954,14 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
@@ -1952,7 +1976,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>15</v>
@@ -1967,7 +1991,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
@@ -1975,63 +1999,35 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="21" t="s">
-        <v>179</v>
+    <row r="15" spans="1:6">
+      <c r="A15" s="21" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2040,7 +2036,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A17" location="一览!A1" display="返回"/>
+    <hyperlink ref="A15" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2178,7 +2174,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2198,7 +2194,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2251,7 +2247,7 @@
         <v>129</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
@@ -2266,7 +2262,7 @@
         <v>130</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>122</v>
@@ -2281,7 +2277,7 @@
         <v>131</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -2296,7 +2292,7 @@
         <v>132</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>63</v>
@@ -2332,7 +2328,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2405,7 +2401,7 @@
         <v>77</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>109</v>
@@ -2420,7 +2416,7 @@
         <v>78</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>81</v>
@@ -2435,7 +2431,7 @@
         <v>79</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>82</v>
@@ -2450,7 +2446,7 @@
         <v>80</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>83</v>
@@ -2500,7 +2496,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2519,9 +2515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2536,13 +2530,13 @@
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F1" s="23"/>
     </row>
@@ -2565,14 +2559,14 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>84</v>
@@ -2580,32 +2574,32 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2617,7 +2611,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>43</v>
@@ -2670,7 +2664,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
@@ -2768,7 +2762,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -2777,7 +2771,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
@@ -2786,7 +2780,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -2795,7 +2789,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -2804,7 +2798,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
@@ -2892,7 +2886,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -2916,7 +2910,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -3056,7 +3050,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -3065,7 +3059,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
@@ -3074,7 +3068,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -3083,7 +3077,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -3178,7 +3172,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -3202,7 +3196,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -3211,7 +3205,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
@@ -3220,7 +3214,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -3322,7 +3316,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
@@ -3346,7 +3340,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
@@ -3533,22 +3527,22 @@
         <v>114</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>84</v>
@@ -3633,7 +3627,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3707,7 +3701,7 @@
         <v>118</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>84</v>
@@ -3722,10 +3716,10 @@
         <v>119</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3737,7 +3731,7 @@
         <v>120</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>84</v>
@@ -3815,7 +3809,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3888,7 +3882,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>43</v>
@@ -3903,7 +3897,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>17</v>
@@ -3918,7 +3912,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>19</v>
@@ -3933,7 +3927,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>17</v>
@@ -3948,7 +3942,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>17</v>
@@ -3963,7 +3957,7 @@
         <v>62</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>63</v>
@@ -3980,7 +3974,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>12</v>
@@ -3995,7 +3989,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>14</v>
@@ -4010,7 +4004,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -4025,7 +4019,7 @@
         <v>48</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>43</v>
@@ -4040,7 +4034,7 @@
         <v>99</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>100</v>
@@ -4069,7 +4063,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4088,8 +4082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4135,29 +4129,29 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>43</v>
@@ -4165,16 +4159,18 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>201</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
@@ -4185,7 +4181,7 @@
         <v>98</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>43</v>
@@ -4193,17 +4189,17 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4212,10 +4208,10 @@
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>63</v>
@@ -4223,27 +4219,29 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>205</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>63</v>
@@ -4254,13 +4252,13 @@
         <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>69</v>
@@ -4268,42 +4266,48 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+        <v>260</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>123</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>43</v>
@@ -4325,7 +4329,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4369,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F2" s="23"/>
     </row>
@@ -4392,32 +4396,32 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4464,7 +4468,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4485,7 +4489,7 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="A1:XFD1048576"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4508,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F2" s="25"/>
     </row>
@@ -4538,7 +4542,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>43</v>
@@ -4553,7 +4557,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>44</v>
@@ -4568,7 +4572,7 @@
         <v>73</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>102</v>
@@ -4583,7 +4587,7 @@
         <v>101</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>43</v>
@@ -4591,67 +4595,97 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>141</v>
+        <v>216</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="F9" s="12"/>
+        <v>217</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>221</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="D12" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5"/>
@@ -4669,7 +4703,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4689,8 +4723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4707,13 +4741,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F2" s="25"/>
     </row>
@@ -4822,7 +4856,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="267">
   <si>
     <t>表名</t>
   </si>
@@ -345,29 +345,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GTD_C_2</t>
-  </si>
-  <si>
-    <t>GTD_C_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_3</t>
-  </si>
-  <si>
-    <t>GTD_C_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日程事件子表(任务)</t>
   </si>
   <si>
-    <t>GTD_C_4</t>
-  </si>
-  <si>
-    <t>GTD_C_5</t>
-  </si>
-  <si>
     <t>日程事件子表(任务)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,10 +355,6 @@
     <t>日程事件子表(备忘录)</t>
   </si>
   <si>
-    <t>GTD_C_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日程事件子表(备忘录)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,18 +399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SCHEDULE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MILESTONE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -538,14 +502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GTD_C_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日程事件子表(日程)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -554,10 +510,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GTD_C_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DATATIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -566,19 +518,484 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日常子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是未授权，1是授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据归属人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是个人，2是群，0未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zt</t>
+  </si>
+  <si>
+    <t>zv</t>
+  </si>
+  <si>
+    <t>zt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zkv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hIU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uCt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ran</t>
+  </si>
+  <si>
+    <t>被授权联系人别称拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rNpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+  </si>
+  <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji</t>
+  </si>
+  <si>
+    <t>ji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>son</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0非本地；1本地日历 默认非本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否本地</t>
+  </si>
+  <si>
+    <t>是否本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地日程id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0未发送，1同意发送，2拒绝发送，3未注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程发送状态</t>
+  </si>
+  <si>
+    <t>日程发送状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0不可修改，1可修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划编号</t>
+  </si>
+  <si>
+    <t>计划名</t>
+  </si>
+  <si>
+    <t>计划描述</t>
+  </si>
+  <si>
+    <t>计划描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名称表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_J_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是未被添加，1是同意，2是拉黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_BO</t>
+  </si>
+  <si>
+    <t>GTD_C_MO</t>
+  </si>
+  <si>
+    <t>GTD_C_MO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_CC</t>
+  </si>
+  <si>
+    <t>GTD_CC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_RC</t>
+  </si>
+  <si>
+    <t>GTD_C_RC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_JN</t>
+  </si>
+  <si>
+    <t>GTD_C_JN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -586,465 +1003,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0否1是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义提醒方式时间</t>
+  </si>
+  <si>
+    <t>自定义提醒方式时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>完成时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>纪念日字表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备忘录子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复停止时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系群组主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系群组主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群成员主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0是未授权，1是授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据归属人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1是个人，2是群，0未注册用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zt</t>
-  </si>
-  <si>
-    <t>zv</t>
-  </si>
-  <si>
-    <t>zt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zkv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hIU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uCt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ran</t>
-  </si>
-  <si>
-    <t>被授权联系人别称拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rNpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bmi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划ID</t>
-  </si>
-  <si>
-    <t>计划ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji</t>
-  </si>
-  <si>
-    <t>ji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>son</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0非本地；1本地日历 默认非本地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否本地</t>
-  </si>
-  <si>
-    <t>是否本地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地日程id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0未发送，1同意发送，2拒绝发送，3未注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程发送状态</t>
-  </si>
-  <si>
-    <t>日程发送状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0不可修改，1可修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒时间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lau</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划编号</t>
-  </si>
-  <si>
-    <t>计划名</t>
-  </si>
-  <si>
-    <t>计划描述</t>
-  </si>
-  <si>
-    <t>计划描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划名称表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_J_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0是未被添加，1是同意，2是拉黑</t>
+    <t>wd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1540,7 +1537,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1562,18 +1559,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1594,7 +1591,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>52</v>
@@ -1602,7 +1599,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>53</v>
@@ -1618,7 +1615,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>55</v>
@@ -1626,7 +1623,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>56</v>
@@ -1642,42 +1639,42 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>91</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1766,17 +1763,20 @@
     <hyperlink ref="A4" location="用户表!A1" display="用户表"/>
     <hyperlink ref="A10" location="标签表!A1" display="标签表"/>
     <hyperlink ref="A11" location="系統設置表!A1" display="系统设置表"/>
-    <hyperlink ref="A12" location="'日程事件子表(里程碑)'!A1" display="日程事件子表(里程碑)"/>
-    <hyperlink ref="A14" location="Sheet3!A1" display="日程事件子表(任务)"/>
+    <hyperlink ref="A12" location="'日程事件子表(日程)'!A1" display="日程事件子表(日程)"/>
+    <hyperlink ref="A14" location="'日程事件子表(任务)'!A1" display="日程事件子表(任务)"/>
     <hyperlink ref="A2" location="字典表!A1" display="字典类型表"/>
     <hyperlink ref="A6" location="授权系人群组中间表!A1" display="授权系人群组中间表"/>
     <hyperlink ref="A3" location="字典数据表!A1" display="字典数据表"/>
     <hyperlink ref="A5" location="用户授权表!A1" display="用户授权表"/>
     <hyperlink ref="A7" location="日程事件表!A1" display="日程事件表"/>
     <hyperlink ref="A8" location="日程参与人表!A1" display="日程参与人表"/>
+    <hyperlink ref="A13" location="'日程事件子表(日常生活)'!A1" display="日程事件子表(日常生活)"/>
+    <hyperlink ref="A15" location="'日程事件子表(纪念日)'!A1" display="日程事件子表(纪念日)"/>
+    <hyperlink ref="A16" location="'日程事件子表(备忘录)'!A1" display="日程事件子表(备忘录)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1911,7 +1911,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +1948,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -1977,14 +1977,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
@@ -1992,29 +1992,29 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -2022,14 +2022,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>63</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2138,10 +2138,10 @@
         <v>78</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2153,7 +2153,7 @@
         <v>79</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>82</v>
@@ -2168,7 +2168,7 @@
         <v>80</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>83</v>
@@ -2183,7 +2183,7 @@
         <v>81</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>84</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="21" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2253,7 +2253,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2269,13 +2269,13 @@
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="F1" s="22"/>
     </row>
@@ -2298,14 +2298,14 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="B3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>85</v>
@@ -2313,32 +2313,32 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2395,7 +2395,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
@@ -2414,10 +2414,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2434,13 +2434,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>138</v>
+        <v>245</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -2463,14 +2463,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>85</v>
@@ -2478,14 +2478,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>85</v>
@@ -2493,55 +2493,95 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>157</v>
+        <v>253</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>155</v>
+        <v>261</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5"/>
@@ -2550,28 +2590,29 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+    <row r="16" spans="1:6">
+      <c r="A16" s="21" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A16" location="一览!A1" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2588,13 +2629,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>87</v>
+        <v>243</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -2617,23 +2658,29 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>85</v>
@@ -2641,47 +2688,95 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5"/>
@@ -2697,21 +2792,29 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A18" location="一览!A1" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2728,13 +2831,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -2757,23 +2860,29 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>85</v>
@@ -2781,53 +2890,95 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5"/>
@@ -2843,21 +2994,29 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A17" location="一览!A1" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2874,13 +3033,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -2903,23 +3062,29 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>85</v>
@@ -2927,51 +3092,95 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5"/>
@@ -2987,21 +3196,29 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A18" location="一览!A1" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3018,13 +3235,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>95</v>
+        <v>241</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -3047,23 +3264,29 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>85</v>
@@ -3071,47 +3294,95 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5"/>
@@ -3127,11 +3398,19 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A17" location="一览!A1" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3222,13 +3501,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -3251,29 +3530,29 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>85</v>
@@ -3358,7 +3637,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="21" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3396,13 +3675,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -3425,14 +3704,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>85</v>
@@ -3440,29 +3719,29 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>85</v>
@@ -3540,7 +3819,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="21" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3613,7 +3892,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>43</v>
@@ -3628,7 +3907,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>17</v>
@@ -3643,7 +3922,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>19</v>
@@ -3658,7 +3937,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>17</v>
@@ -3673,7 +3952,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>17</v>
@@ -3688,7 +3967,7 @@
         <v>62</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>63</v>
@@ -3705,7 +3984,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>12</v>
@@ -3720,7 +3999,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>14</v>
@@ -3735,7 +4014,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -3750,7 +4029,7 @@
         <v>48</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>43</v>
@@ -3758,17 +4037,17 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3794,7 +4073,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="21" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3813,7 +4092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -3837,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -3860,29 +4139,29 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>43</v>
@@ -3890,27 +4169,27 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>43</v>
@@ -3918,29 +4197,29 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>63</v>
@@ -3948,27 +4227,27 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>63</v>
@@ -3979,13 +4258,13 @@
         <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>69</v>
@@ -3993,10 +4272,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
@@ -4004,31 +4283,31 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>43</v>
@@ -4050,7 +4329,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="21" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4094,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -4117,32 +4396,32 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4189,7 +4468,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4263,7 +4542,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>43</v>
@@ -4271,14 +4550,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>44</v>
@@ -4286,29 +4565,29 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>43</v>
@@ -4316,44 +4595,44 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="10" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -4394,7 +4673,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="21" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4468,7 +4747,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -4483,7 +4762,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -4498,7 +4777,7 @@
         <v>46</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -4509,28 +4788,28 @@
         <v>71</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
@@ -4545,7 +4824,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>15</v>
@@ -4560,7 +4839,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
@@ -4568,63 +4847,63 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="21" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="271">
   <si>
     <t>表名</t>
   </si>
@@ -383,221 +383,213 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>主表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_X</t>
+  </si>
+  <si>
+    <t>GTD_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权系人群组中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>标签表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+  </si>
+  <si>
+    <t>标签名称</t>
+  </si>
+  <si>
+    <t>标签类型</t>
+  </si>
+  <si>
+    <t>标签对应子表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(纪念日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(纪念日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里程碑子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_X</t>
-  </si>
-  <si>
-    <t>GTD_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权系人群组中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签表</t>
-  </si>
-  <si>
-    <t>标签表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-  </si>
-  <si>
-    <t>标签名称</t>
-  </si>
-  <si>
-    <t>标签类型</t>
-  </si>
-  <si>
-    <t>标签对应子表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(纪念日)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(纪念日)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATATIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系群组主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系群组主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群成员主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0是未授权，1是授权</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -936,10 +928,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0是未被添加，1是同意，2是拉黑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1042,6 +1030,34 @@
   </si>
   <si>
     <t>wd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友状态标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1559,18 +1575,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1591,7 +1607,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>52</v>
@@ -1599,7 +1615,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>53</v>
@@ -1615,7 +1631,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>55</v>
@@ -1623,7 +1639,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>56</v>
@@ -1639,10 +1655,10 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1650,7 +1666,7 @@
         <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1658,15 +1674,15 @@
         <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1674,7 +1690,7 @@
         <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1911,7 +1927,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +1964,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -1977,14 +1993,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
@@ -1992,29 +2008,29 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -2022,14 +2038,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>63</v>
@@ -2065,7 +2081,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2138,10 +2154,10 @@
         <v>78</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2153,7 +2169,7 @@
         <v>79</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>82</v>
@@ -2168,7 +2184,7 @@
         <v>80</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>83</v>
@@ -2183,7 +2199,7 @@
         <v>81</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>84</v>
@@ -2233,7 +2249,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2269,13 +2285,13 @@
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F1" s="22"/>
     </row>
@@ -2298,14 +2314,14 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>85</v>
@@ -2313,32 +2329,32 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2395,7 +2411,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
@@ -2434,13 +2450,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -2463,14 +2479,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>85</v>
@@ -2478,14 +2494,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>85</v>
@@ -2493,14 +2509,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>85</v>
@@ -2508,79 +2524,79 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2592,7 +2608,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2635,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -2658,14 +2674,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>85</v>
@@ -2673,14 +2689,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>85</v>
@@ -2688,14 +2704,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>85</v>
@@ -2703,79 +2719,79 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2794,7 +2810,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2837,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -2860,14 +2876,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>85</v>
@@ -2875,14 +2891,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>85</v>
@@ -2890,14 +2906,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>85</v>
@@ -2905,79 +2921,79 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2996,7 +3012,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3033,13 +3049,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -3062,14 +3078,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>85</v>
@@ -3077,14 +3093,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>85</v>
@@ -3092,14 +3108,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>85</v>
@@ -3107,79 +3123,79 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3198,7 +3214,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3241,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -3264,14 +3280,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>85</v>
@@ -3279,14 +3295,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>85</v>
@@ -3294,14 +3310,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>85</v>
@@ -3309,79 +3325,79 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3400,7 +3416,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3501,13 +3517,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -3530,29 +3546,29 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>85</v>
@@ -3637,7 +3653,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3675,13 +3691,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -3704,14 +3720,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>85</v>
@@ -3719,29 +3735,29 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>85</v>
@@ -3819,7 +3835,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3839,7 +3855,7 @@
   <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3892,7 +3908,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>43</v>
@@ -3907,7 +3923,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>17</v>
@@ -3922,7 +3938,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>19</v>
@@ -3937,7 +3953,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>17</v>
@@ -3952,7 +3968,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>17</v>
@@ -3967,7 +3983,7 @@
         <v>62</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>63</v>
@@ -3984,7 +4000,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>12</v>
@@ -3999,7 +4015,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>14</v>
@@ -4014,7 +4030,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -4029,7 +4045,7 @@
         <v>48</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>43</v>
@@ -4044,7 +4060,7 @@
         <v>93</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>94</v>
@@ -4073,7 +4089,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4093,7 +4109,7 @@
   <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4116,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -4139,29 +4155,29 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>43</v>
@@ -4169,16 +4185,18 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
@@ -4189,7 +4207,7 @@
         <v>92</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>43</v>
@@ -4197,29 +4215,29 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>63</v>
@@ -4227,27 +4245,29 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>180</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>63</v>
@@ -4258,13 +4278,13 @@
         <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>69</v>
@@ -4272,42 +4292,48 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>43</v>
@@ -4329,7 +4355,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4373,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -4396,32 +4422,32 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4468,7 +4494,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4489,7 +4515,7 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4542,7 +4568,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>43</v>
@@ -4550,14 +4576,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>44</v>
@@ -4565,17 +4591,17 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4587,7 +4613,7 @@
         <v>95</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>43</v>
@@ -4595,46 +4621,50 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>129</v>
+      <c r="F8" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="4" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>196</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5"/>
@@ -4673,7 +4703,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4694,7 +4724,7 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4747,7 +4777,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -4762,7 +4792,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -4777,7 +4807,7 @@
         <v>46</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -4788,31 +4818,31 @@
         <v>71</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4824,10 +4854,10 @@
         <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>15</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4839,7 +4869,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
@@ -4847,63 +4877,71 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>204</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F13" s="4"/>
+        <v>211</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F14" s="4"/>
+        <v>213</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="9" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="273">
   <si>
     <t>表名</t>
   </si>
@@ -220,42 +220,792 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GTD_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义全部客户端表字典结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>真实姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統設置表</t>
+  </si>
+  <si>
+    <t>授权标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权关系人中间表</t>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0无，1男，2女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GTD_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GTD_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GTD_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GTD_G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义全部客户端表字典结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
-    <t>真实姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
+  </si>
+  <si>
+    <t>系统设置自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(任务)</t>
+  </si>
+  <si>
+    <t>日程事件子表(任务)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(备忘录)</t>
+  </si>
+  <si>
+    <t>日程事件子表(备忘录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日常生活)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日常生活)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户消息队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_X</t>
+  </si>
+  <si>
+    <t>GTD_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权系人群组中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>标签表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+  </si>
+  <si>
+    <t>标签名称</t>
+  </si>
+  <si>
+    <t>标签类型</t>
+  </si>
+  <si>
+    <t>标签对应子表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(纪念日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(纪念日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是未授权，1是授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据归属人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是个人，2是群，0未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zt</t>
+  </si>
+  <si>
+    <t>zv</t>
+  </si>
+  <si>
+    <t>zt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zkv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hIU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uCt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ran</t>
+  </si>
+  <si>
+    <t>被授权联系人别称拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rNpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+  </si>
+  <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji</t>
+  </si>
+  <si>
+    <t>ji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>son</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0非本地；1本地日历 默认非本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否本地</t>
+  </si>
+  <si>
+    <t>是否本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地日程id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0未发送，1同意发送，2拒绝发送，3未注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程发送状态</t>
+  </si>
+  <si>
+    <t>日程发送状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0不可修改，1可修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划编号</t>
+  </si>
+  <si>
+    <t>计划名</t>
+  </si>
+  <si>
+    <t>计划描述</t>
+  </si>
+  <si>
+    <t>计划描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名称表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是未被添加，1是同意，2是拉黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_BO</t>
+  </si>
+  <si>
+    <t>GTD_C_MO</t>
+  </si>
+  <si>
+    <t>GTD_CC</t>
+  </si>
+  <si>
+    <t>GTD_C_RC</t>
+  </si>
+  <si>
+    <t>GTD_C_RC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_JN</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0否1是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义提醒方式时间</t>
+  </si>
+  <si>
+    <t>自定义提醒方式时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -263,11 +1013,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GTD_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_A</t>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_BO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_JN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_MO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_J_H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -275,789 +1065,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系統設置表</t>
-  </si>
-  <si>
-    <t>授权标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权关系人中间表</t>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0无，1男，2女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GTD_C</t>
-  </si>
-  <si>
-    <t>GTD_D</t>
-  </si>
-  <si>
-    <t>GTD_E</t>
-  </si>
-  <si>
-    <t>GTD_G</t>
-  </si>
-  <si>
-    <t>系统设置自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(任务)</t>
-  </si>
-  <si>
-    <t>日程事件子表(任务)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(备忘录)</t>
-  </si>
-  <si>
-    <t>日程事件子表(备忘录)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日常生活)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日常生活)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户消息队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里程碑子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_X</t>
-  </si>
-  <si>
-    <t>GTD_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权系人群组中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签表</t>
-  </si>
-  <si>
-    <t>标签表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-  </si>
-  <si>
-    <t>标签名称</t>
-  </si>
-  <si>
-    <t>标签类型</t>
-  </si>
-  <si>
-    <t>标签对应子表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(纪念日)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(纪念日)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系群组主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系群组主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群成员主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0是未授权，1是授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据归属人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1是个人，2是群，0未注册用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zt</t>
-  </si>
-  <si>
-    <t>zv</t>
-  </si>
-  <si>
-    <t>zt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zkv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hIU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uCt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ran</t>
-  </si>
-  <si>
-    <t>被授权联系人别称拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rNpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bmi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划ID</t>
-  </si>
-  <si>
-    <t>计划ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji</t>
-  </si>
-  <si>
-    <t>ji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>son</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0非本地；1本地日历 默认非本地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否本地</t>
-  </si>
-  <si>
-    <t>是否本地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地日程id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0未发送，1同意发送，2拒绝发送，3未注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程发送状态</t>
-  </si>
-  <si>
-    <t>日程发送状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0不可修改，1可修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒时间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lau</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划编号</t>
-  </si>
-  <si>
-    <t>计划名</t>
-  </si>
-  <si>
-    <t>计划描述</t>
-  </si>
-  <si>
-    <t>计划描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划名称表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_J_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0是未被添加，1是同意，2是拉黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_BO</t>
-  </si>
-  <si>
-    <t>GTD_C_MO</t>
-  </si>
-  <si>
-    <t>GTD_C_MO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_CC</t>
-  </si>
-  <si>
-    <t>GTD_CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_RC</t>
-  </si>
-  <si>
-    <t>GTD_C_RC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C_JN</t>
-  </si>
-  <si>
-    <t>GTD_C_JN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0否1是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义提醒方式时间</t>
-  </si>
-  <si>
-    <t>自定义提醒方式时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dt</t>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友状态标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1552,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1575,18 +1583,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1594,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1602,12 +1610,12 @@
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>52</v>
@@ -1615,10 +1623,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1626,23 +1634,23 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1650,47 +1658,47 @@
         <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1824,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -1857,7 +1865,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1872,7 +1880,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1927,7 +1935,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1964,13 +1972,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -1993,14 +2001,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
@@ -2008,29 +2016,29 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -2038,17 +2046,17 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2081,7 +2089,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2118,13 +2126,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -2147,62 +2155,62 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2249,7 +2257,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2269,7 +2277,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2285,13 +2293,13 @@
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="F1" s="22"/>
     </row>
@@ -2314,47 +2322,47 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2411,7 +2419,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
@@ -2450,13 +2458,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -2479,124 +2487,124 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2608,7 +2616,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2645,13 +2653,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -2674,124 +2682,124 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2810,7 +2818,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2847,13 +2855,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -2876,124 +2884,124 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3012,7 +3020,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3031,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -3049,13 +3057,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -3078,124 +3086,124 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3214,7 +3222,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3251,13 +3259,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -3280,124 +3288,124 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3416,7 +3424,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3474,13 +3482,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="7">
         <v>43415</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>45</v>
@@ -3517,13 +3525,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -3546,32 +3554,32 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3653,7 +3661,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3691,13 +3699,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -3720,47 +3728,47 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3835,7 +3843,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3878,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -3908,7 +3916,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>43</v>
@@ -3923,7 +3931,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>17</v>
@@ -3938,7 +3946,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>19</v>
@@ -3953,7 +3961,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>17</v>
@@ -3961,14 +3969,14 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>17</v>
@@ -3976,17 +3984,17 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3994,13 +4002,13 @@
         <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>12</v>
@@ -4015,7 +4023,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>14</v>
@@ -4030,7 +4038,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -4045,7 +4053,7 @@
         <v>48</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>43</v>
@@ -4053,17 +4061,17 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4089,7 +4097,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4132,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -4155,29 +4163,29 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>43</v>
@@ -4185,29 +4193,29 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>43</v>
@@ -4215,125 +4223,125 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>43</v>
@@ -4355,7 +4363,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4393,13 +4401,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -4422,32 +4430,32 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4494,7 +4502,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4538,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -4568,7 +4576,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>43</v>
@@ -4576,14 +4584,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>44</v>
@@ -4591,14 +4599,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>43</v>
@@ -4606,14 +4614,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>43</v>
@@ -4621,46 +4629,46 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>191</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>192</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>43</v>
@@ -4703,7 +4711,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4747,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -4777,7 +4785,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -4792,7 +4800,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -4807,7 +4815,7 @@
         <v>46</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -4815,34 +4823,34 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4854,10 +4862,10 @@
         <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4869,7 +4877,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
@@ -4877,14 +4885,14 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>42</v>
@@ -4892,31 +4900,31 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>42</v>
@@ -4924,24 +4932,24 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\GTD2\A-开发相关文档素材\2.数据库表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -30,11 +25,11 @@
     <sheet name="日程事件子表(任务)" sheetId="33" r:id="rId16"/>
     <sheet name="日程事件子表(纪念日)" sheetId="37" r:id="rId17"/>
     <sheet name="日程事件子表(备忘录)" sheetId="35" r:id="rId18"/>
-    <sheet name="Sheet1" sheetId="42" r:id="rId19"/>
+    <sheet name="日程事件子表(记录取消或删除的日程)" sheetId="42" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -42,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="287">
   <si>
     <t>表名</t>
   </si>
@@ -1066,13 +1061,69 @@
   </si>
   <si>
     <t>GTD_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(记录取消或删除的日程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(记录取消或删除的日程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主KEYID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 忽略，1 删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1202,7 +1253,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1266,6 +1317,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1338,7 +1392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1373,7 +1427,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1550,18 +1604,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1701,9 +1755,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="2"/>
+    <row r="17" spans="1:2" ht="27">
+      <c r="A17" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6"/>
@@ -1798,6 +1856,7 @@
     <hyperlink ref="A13" location="'日程事件子表(日常生活)'!A1" display="日程事件子表(日常生活)"/>
     <hyperlink ref="A15" location="'日程事件子表(纪念日)'!A1" display="日程事件子表(纪念日)"/>
     <hyperlink ref="A16" location="'日程事件子表(备忘录)'!A1" display="日程事件子表(备忘录)"/>
+    <hyperlink ref="A17" location="'日程事件子表(记录取消或删除的日程)'!A1" display="日程事件子表(记录取消或删除的日程)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -1805,7 +1864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1831,10 +1890,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1951,7 +2010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1977,10 +2036,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2105,7 +2164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2131,10 +2190,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2273,7 +2332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2298,10 +2357,10 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="F1" s="22"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -2437,7 +2496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2463,10 +2522,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2632,7 +2691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2658,10 +2717,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2834,7 +2893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2860,10 +2919,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3036,7 +3095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3062,10 +3121,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3238,11 +3297,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3264,10 +3323,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3440,20 +3499,185 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A17" location="一览!A1" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3504,7 +3728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3530,10 +3754,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3678,7 +3902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3704,10 +3928,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3859,7 +4083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3885,10 +4109,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4113,7 +4337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4139,10 +4363,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4380,7 +4604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4406,10 +4630,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4519,7 +4743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4545,10 +4769,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4728,7 +4952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4754,10 +4978,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">

--- a/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/客户端数据表字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="893" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="260">
   <si>
     <t>表名</t>
   </si>
@@ -67,9 +67,6 @@
     <t>字段类型</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>用户ID</t>
   </si>
   <si>
@@ -173,66 +170,826 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>系統設置表</t>
+  </si>
+  <si>
+    <t>授权标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权关系人中间表</t>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0无，1男，2女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C</t>
+  </si>
+  <si>
+    <t>GTD_D</t>
+  </si>
+  <si>
+    <t>GTD_E</t>
+  </si>
+  <si>
+    <t>系统设置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是未授权，1是授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据归属人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是个人，2是群，0未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uCt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ran</t>
+  </si>
+  <si>
+    <t>被授权联系人别称拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rNpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+  </si>
+  <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji</t>
+  </si>
+  <si>
+    <t>ji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>son</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0非本地；1本地日历 默认非本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否本地</t>
+  </si>
+  <si>
+    <t>是否本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地日程id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0未发送，1同意发送，2拒绝发送，3未注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程发送状态</t>
+  </si>
+  <si>
+    <t>日程发送状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0不可修改，1可修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名</t>
+  </si>
+  <si>
+    <t>计划描述</t>
+  </si>
+  <si>
+    <t>计划描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名称表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是未被添加，1是同意，2是拉黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_J_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据最新需求简化表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张金洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组参与人关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户消息队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：关闭，1：每日，2：每周，3：每月，4：每年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程特殊事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程特殊事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程特殊事件主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程提醒日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：修改，2：删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：日程事件，2：日程特殊事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人账户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>et</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唤醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新消息提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(400)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好设置类型</t>
+  </si>
+  <si>
+    <t>偏好设置类型名称</t>
+  </si>
+  <si>
+    <t>偏好设置名称</t>
+  </si>
+  <si>
+    <t>偏好设置key</t>
+  </si>
+  <si>
+    <t>偏好设置value</t>
+  </si>
+  <si>
+    <t>yi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ytn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户偏好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GTD_A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系統設置表</t>
-  </si>
-  <si>
-    <t>授权标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权关系人中间表</t>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0无，1男，2女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C</t>
-  </si>
-  <si>
-    <t>GTD_D</t>
-  </si>
-  <si>
-    <t>GTD_E</t>
-  </si>
-  <si>
-    <t>系统设置自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人ID</t>
+    <t>aN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -240,138 +997,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系群组主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系群组主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群成员主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0是未授权，1是授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据归属人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1是个人，2是群，0未注册用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hIU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,659 +1005,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uCt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ran</t>
-  </si>
-  <si>
-    <t>被授权联系人别称拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rNpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bmi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划ID</t>
-  </si>
-  <si>
-    <t>计划ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji</t>
-  </si>
-  <si>
-    <t>ji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>son</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0非本地；1本地日历 默认非本地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否本地</t>
-  </si>
-  <si>
-    <t>是否本地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地日程id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0未发送，1同意发送，2拒绝发送，3未注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程发送状态</t>
-  </si>
-  <si>
-    <t>日程发送状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0不可修改，1可修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划名</t>
-  </si>
-  <si>
-    <t>计划描述</t>
-  </si>
-  <si>
-    <t>计划描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划名称表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0是未被添加，1是同意，2是拉黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_J_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒时间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据最新需求简化表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张金洋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组参与人关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户消息队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：关闭，1：每日，2：每周，3：每月，4：每年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程特殊事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_SP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程特殊事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程特殊事件主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程提醒日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：修改，2：删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：日程事件，2：日程特殊事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人账户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>et</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唤醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新消息提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音播报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>震动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画面msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(400)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏好自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏好设置类型</t>
-  </si>
-  <si>
-    <t>偏好设置类型名称</t>
-  </si>
-  <si>
-    <t>偏好设置名称</t>
-  </si>
-  <si>
-    <t>偏好设置key</t>
-  </si>
-  <si>
-    <t>偏好设置value</t>
-  </si>
-  <si>
-    <t>yi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ytn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户偏好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>sta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1516,7 +1513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1526,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1544,106 +1541,106 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>170</v>
+        <v>242</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1696,7 +1693,7 @@
     <hyperlink ref="A8" location="用户设置!A1" display="用户设置"/>
     <hyperlink ref="A7" location="提醒时间表!A1" display="提醒时间表"/>
     <hyperlink ref="A5" location="日程事件表!A1" display="日程表"/>
-    <hyperlink ref="A2" location="用户表!A1" display="用户表"/>
+    <hyperlink ref="A2" location="账户表!A1" display="账户表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -1705,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1720,22 +1717,22 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1752,209 +1749,361 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> pwI varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> pwI</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _pwI: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,ran varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,ran</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _ran: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G13" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,ranpy varchar(20) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I13" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,ranpy</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ranpy: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,rI varchar(50) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,rI</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _rI: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>70</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,hiu varchar(200) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,hiu</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _hiu: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,rN varchar(20) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,rN</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _rN: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,rNpy varchar(20) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,rNpy</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _rNpy: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,rC varchar(20) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,rC</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _rC: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>256</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,rF varchar(4) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,rF</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _rF: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>256</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ot varchar(4) </v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ot</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ot: string;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>256</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ref="G14:G15" si="3">" ," &amp; E14 &amp; " " &amp; F14 &amp; " "</f>
+        <v xml:space="preserve"> ,rel varchar(4) </v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" ref="I14:I15" si="4">" ," &amp; E14</f>
+        <v xml:space="preserve"> ,rel</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" ref="J14:J15" si="5">"private _"&amp;E14&amp;": string;"</f>
+        <v>private _rel: string;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> ,uI varchar(50) </v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> ,uI</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="5"/>
+        <v>private _uI: string;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13,G14,G15)</f>
+        <v xml:space="preserve"> pwI varchar(50) PRIMARY KEY ,ran varchar(50)  ,ranpy varchar(20)  ,rI varchar(50)  ,hiu varchar(200)  ,rN varchar(20)  ,rNpy varchar(20)  ,rC varchar(20)  ,rF varchar(4)  ,ot varchar(4)  ,rel varchar(4)  ,uI varchar(50) </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13,I14,I15)</f>
+        <v xml:space="preserve"> pwI ,ran ,ranpy ,rI ,hiu ,rN ,rNpy ,rC ,rF ,ot ,rel ,uI</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1972,10 +2121,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1987,22 +2136,22 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2019,131 +2168,175 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> gI varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> gI</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _gI: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,gN varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,gN</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J6" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _gN: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,gM varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,gM</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _gM: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:10">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:10">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> gI varchar(50) PRIMARY KEY ,gN varchar(50)  ,gM varchar(50) </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> gI ,gN ,gM</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2161,10 +2354,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2176,22 +2369,22 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2208,81 +2401,117 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> bi varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> bi</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _bi: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,bmi varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,bmi</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _bmi: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10">
       <c r="A14" s="18" t="s">
-        <v>88</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16" t="str">
+        <f>CONCATENATE(G2,G3,G4,G5,G6,G7,G8,G9,G10,G11)</f>
+        <v xml:space="preserve"> bi varchar(50) PRIMARY KEY ,bmi varchar(50) </v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I2,I3,I4,I5,I6,I7,I8,I9,I10,I11)</f>
+        <v xml:space="preserve"> bi ,bmi</v>
       </c>
     </row>
   </sheetData>
@@ -2300,10 +2529,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2315,22 +2544,22 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2347,149 +2576,229 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>257</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>257</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> si varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> si</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _si: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,st VARCHAR(20) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,st</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J9" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _st: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,stn VARCHAR(20) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I9" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,stn</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _stn: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sn VARCHAR(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sn</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sn: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,yk VARCHAR(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,yk</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _yk: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,yv VARCHAR(400) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,yv</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _yv: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:10">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:10">
       <c r="D15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5">
+        <v>214</v>
+      </c>
+      <c r="G18" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> si varchar(50) PRIMARY KEY ,st VARCHAR(20)  ,stn VARCHAR(20)  ,sn VARCHAR(20)  ,yk VARCHAR(20)  ,yv VARCHAR(400) </v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>233</v>
+        <v>215</v>
+      </c>
+      <c r="G19" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> si ,st ,stn ,sn ,yk ,yv</v>
       </c>
     </row>
   </sheetData>
@@ -2501,15 +2810,16 @@
     <hyperlink ref="A16" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F22"/>
+  <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2521,22 +2831,22 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2553,163 +2863,251 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>62</v>
+        <v>258</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> yi varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> yi</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _yi: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,yt VARCHAR(20) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,yt</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J9" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _yt: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>64</v>
+        <v>218</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,ytn VARCHAR(20) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I9" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,ytn</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ytn: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,yn VARCHAR(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,yn</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _yn: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,yk VARCHAR(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,yk</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _yk: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,yv VARCHAR(400) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,yv</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _yv: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:10">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="D12" s="8"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:10">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="18" spans="1:7">
+      <c r="G18" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> yi varchar(50) PRIMARY KEY ,yt VARCHAR(20)  ,ytn VARCHAR(20)  ,yn VARCHAR(20)  ,yk VARCHAR(20)  ,yv VARCHAR(400) </v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="18" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>204</v>
+      </c>
+      <c r="G19" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> yi ,yt ,ytn ,yn ,yk ,yv</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="F20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="F21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="F22" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2721,6 +3119,7 @@
     <hyperlink ref="A19" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2740,44 +3139,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B2" s="7">
         <v>43415</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B3" s="7">
         <v>43528</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2788,10 +3187,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2803,22 +3202,22 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2835,120 +3234,150 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> aI varchar(50) PRIMARY KEY</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>245</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,aN varchar(10) </v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>182</v>
+        <v>246</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>247</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G12" si="0">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,aM varchar(11) </v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>248</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,aE varchar(20) </v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,aT varchar(50) </v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>250</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,aQ varchar(100) </v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="13" spans="1:7">
+      <c r="G13" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
+        <v xml:space="preserve"> aI varchar(50) PRIMARY KEY ,aN varchar(10)  ,aM varchar(11)  ,aE varchar(20)  ,aT varchar(50)  ,aQ varchar(100) </v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="18" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2965,10 +3394,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F18"/>
+  <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2980,7 +3409,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2991,11 +3420,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3012,167 +3441,251 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> uI varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> uI</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,aI varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,aI</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G12" si="0">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,uN varchar(10) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I12" si="1">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,uN</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,hIU varchar(200) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,hIU</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,biy varchar(10) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,biy</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,rn varchar(10) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,rn</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,iC varchar(20) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,iC</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>96</v>
+        <v>253</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>256</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,uS varchar(4) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,uS</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,uCt varchar(11) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,uCt</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:9">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:9">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="16" spans="1:9">
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
+        <v xml:space="preserve"> uI varchar(50) PRIMARY KEY ,aI varchar(50)  ,uN varchar(10)  ,hIU varchar(200)  ,biy varchar(10)  ,rn varchar(10)  ,iC varchar(20)  ,uS varchar(4)  ,uCt varchar(11) </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,)</f>
+        <v xml:space="preserve"> uI ,aI ,uN ,hIU ,biy ,rn ,iC ,uS ,uCt</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="18" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3190,10 +3703,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3205,7 +3718,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3216,11 +3729,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3237,185 +3750,301 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> sI varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> sI</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _sI: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,sN varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,sN</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J12" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _sN: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,uI varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,uI</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _uI: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>134</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sd varchar(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sd</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sd: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,st varchar(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,st</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _st: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>115</v>
+        <v>201</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ed varchar(20) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ed</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ed: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="27">
+        <v>135</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,et varchar(20) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,et</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _et: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="27">
       <c r="A11" s="5" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>256</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,rT varchar(4) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,rT</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _rT: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ji varchar(50) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ji</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ji: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:10">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
+        <v xml:space="preserve"> sI varchar(50) PRIMARY KEY ,sN varchar(50)  ,uI varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,rT varchar(4)  ,ji varchar(50) </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,)</f>
+        <v xml:space="preserve"> sI ,sN ,uI ,sd ,st ,ed ,et ,rT ,ji</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3433,10 +4062,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3448,22 +4077,22 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3480,186 +4109,316 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> spI varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> spI</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _spI: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,sI varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,sI</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _sI: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,spN varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,spN</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _spN: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>134</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sd varchar(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sd</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sd: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,st varchar(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,st</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _st: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ed varchar(20) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ed</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ed: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,et varchar(20) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,et</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _et: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ji varchar(50) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ji</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ji: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,bz varchar(50) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,bz</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _bz: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>139</v>
+        <v>254</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>256</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ref="G13" si="3">" ," &amp; E13 &amp; " " &amp; F13 &amp; " "</f>
+        <v xml:space="preserve"> ,sta varchar(4) </v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13" si="4">" ," &amp; E13</f>
+        <v xml:space="preserve"> ,sta</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sta: string;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:10">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> spI varchar(50) PRIMARY KEY ,sI varchar(50)  ,spN varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,ji varchar(50)  ,bz varchar(50)  ,sta varchar(4) </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> spI ,sI ,spN ,sd ,st ,ed ,et ,ji ,bz ,sta</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="18" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3671,15 +4430,16 @@
     <hyperlink ref="A19" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G4" sqref="G4:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3691,7 +4451,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3702,11 +4462,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3723,152 +4483,272 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> pI varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> pI</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _pI: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,sI varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,sI</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _sI: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G13" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,sT varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I13" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,sT</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sT: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,son varchar(50) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,son</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _son: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>255</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sa varchar(4) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sa</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sa: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,aI varchar(50) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,aI</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _aI: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>255</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ib varchar(4) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ib</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ib: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,bi varchar(50) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,bi</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _bi: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>255</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sdt varchar(4) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sdt</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sdt: string;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="18" t="s">
-        <v>88</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> pI varchar(50) PRIMARY KEY ,sI varchar(50)  ,sT varchar(50)  ,son varchar(50)  ,sa varchar(4)  ,aI varchar(50)  ,ib varchar(4)  ,bi varchar(50)  ,sdt varchar(4) </v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> pI ,sI ,sT ,son ,sa ,aI ,ib ,bi ,sdt</v>
       </c>
     </row>
   </sheetData>
@@ -3886,10 +4766,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F16"/>
+  <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3901,7 +4781,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3912,11 +4792,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3933,121 +4813,191 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> wI varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> wI</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _wI: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,sI varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,sI</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J9" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _sI: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,sT varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I9" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,sT</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sT: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>134</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,wD varchar(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wD</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _wD: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>134</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,wT varchar(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wT</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _wT: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:10">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> wI varchar(50) PRIMARY KEY ,sI varchar(50)  ,sT varchar(50)  ,wD varchar(20)  ,wT varchar(20) </v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> wI ,sI ,sT ,wD ,wT</v>
       </c>
     </row>
   </sheetData>
@@ -4059,15 +5009,16 @@
     <hyperlink ref="A16" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G15" sqref="G15:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4078,22 +5029,22 @@
     <col min="6" max="6" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F1" s="21"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -4110,109 +5061,157 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>52</v>
+      </c>
+      <c r="G3" t="str">
+        <f>" " &amp; E3 &amp; " " &amp; F3 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> ji VARCHAR(50) PRIMARY KEY</v>
+      </c>
+      <c r="I3" t="str">
+        <f>" " &amp; E3</f>
+        <v xml:space="preserve"> ji</v>
+      </c>
+      <c r="J3" t="str">
+        <f>"private _"&amp;E3&amp;": string;"</f>
+        <v>private _ji: string;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>131</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" ," &amp; E4 &amp; " " &amp; F4 &amp; " "</f>
+        <v xml:space="preserve"> ,jn VARCHAR(100) </v>
+      </c>
+      <c r="I4" t="str">
+        <f>" ," &amp; E4</f>
+        <v xml:space="preserve"> ,jn</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J5" si="0">"private _"&amp;E4&amp;": string;"</f>
+        <v>private _jn: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5" si="1">" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,jg VARCHAR(100) </v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5" si="2">" ," &amp; E5</f>
+        <v xml:space="preserve"> ,jg</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>private _jg: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10">
       <c r="A14" s="18" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="G15" t="str">
+        <f>CONCATENATE(G3,G4,G5,G6,G7,G8,G9,G10,G11,G12)</f>
+        <v xml:space="preserve"> ji VARCHAR(50) PRIMARY KEY ,jn VARCHAR(100)  ,jg VARCHAR(100) </v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16" t="str">
+        <f>CONCATENATE(I3,I4,I5,I6,I7,I8,I9,I10,I11,I12)</f>
+        <v xml:space="preserve"> ji ,jn ,jg</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4223,5 +5222,6 @@
     <hyperlink ref="A14" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>